--- a/Matching Diagram/Turn Maneuver.xlsx
+++ b/Matching Diagram/Turn Maneuver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFC846-8C4F-47A8-BD3B-F106DBE57A0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F6FBDD-B632-44F8-9DC0-37111B6A121F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>Density</t>
   </si>
@@ -93,23 +93,16 @@
   <si>
     <t>Low Tech</t>
   </si>
-  <si>
-    <t>Matching Coff</t>
-  </si>
-  <si>
-    <t>Maching Coff</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +117,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="178"/>
     </font>
   </fonts>
   <fills count="4">
@@ -245,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,7 +274,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -307,33 +309,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,7 +346,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -409,7 +414,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'76 seat'!$Q$5:$Q$34</c:f>
+              <c:f>'76 seat'!$P$5:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -508,99 +513,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'76 seat'!$R$5:$R$34</c:f>
+              <c:f>'76 seat'!$Q$5:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.9631070863150455</c:v>
+                  <c:v>0.7020989951404526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0181073557746574</c:v>
+                  <c:v>0.3671041078274051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7193535845354766</c:v>
+                  <c:v>0.26257452772624656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58216130312159786</c:v>
+                  <c:v>0.21566127442806024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50959361763783972</c:v>
+                  <c:v>0.19179455185106278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46933823011914194</c:v>
+                  <c:v>0.1794510946346598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44754701286619303</c:v>
+                  <c:v>0.17369236048145364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4372959020293371</c:v>
+                  <c:v>0.17204907824274546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43473819546987652</c:v>
+                  <c:v>0.17314943061370267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43756587190459267</c:v>
+                  <c:v>0.17617032721142559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44431019051689186</c:v>
+                  <c:v>0.18058798324679634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45399199076237823</c:v>
+                  <c:v>0.18605320886040294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46593339226416275</c:v>
+                  <c:v>0.19232425722649865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47965019475303838</c:v>
+                  <c:v>0.19922845204097869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4947873180315871</c:v>
+                  <c:v>0.20663916401416615</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51107845195174495</c:v>
+                  <c:v>0.21446142117880346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52831994757675771</c:v>
+                  <c:v>0.22262259791286998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.54635341128914927</c:v>
+                  <c:v>0.23106620762146091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56505379549617574</c:v>
+                  <c:v>0.2397476556243881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58432106212364188</c:v>
+                  <c:v>0.2486312661775012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.60407422796862764</c:v>
+                  <c:v>0.25768815891648789</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62424703404692594</c:v>
+                  <c:v>0.26689470445236541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64478474467593083</c:v>
+                  <c:v>0.27623138285510451</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66564174678680377</c:v>
+                  <c:v>0.28568192751634758</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.68677972540172083</c:v>
+                  <c:v>0.29523267448507401</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.70816626015483053</c:v>
+                  <c:v>0.30487206195657424</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72977373369744503</c:v>
+                  <c:v>0.31459024098609567</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.75157847401640299</c:v>
+                  <c:v>0.3243787696209931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.77356007420380657</c:v>
+                  <c:v>0.33423037031588287</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.79570084827281184</c:v>
+                  <c:v>0.34413873586476568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,7 +649,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'76 seat'!$S$5:$S$34</c:f>
+              <c:f>'76 seat'!$R$5:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -743,99 +748,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'76 seat'!$T$5:$T$34</c:f>
+              <c:f>'76 seat'!$S$5:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.9618015930072907</c:v>
+                  <c:v>0.70152561620269616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0154963691591479</c:v>
+                  <c:v>0.36595734995189233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71543710461221222</c:v>
+                  <c:v>0.26085439091297741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57693932989057861</c:v>
+                  <c:v>0.21336775867703467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50306615109906561</c:v>
+                  <c:v>0.18892765716228083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46150527027261312</c:v>
+                  <c:v>0.17601082100812146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4384085597119094</c:v>
+                  <c:v>0.16967870791715892</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4268519555672986</c:v>
+                  <c:v>0.16746204674069437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42298875570008321</c:v>
+                  <c:v>0.16798902017389516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42451093882704455</c:v>
+                  <c:v>0.1704365378338617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42994976413158886</c:v>
+                  <c:v>0.17428081493147607</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43832607106932064</c:v>
+                  <c:v>0.17917266160732628</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4489619792633503</c:v>
+                  <c:v>0.18487033103566558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46137328844447112</c:v>
+                  <c:v>0.19120114691238926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47520491841526491</c:v>
+                  <c:v>0.19803847994782034</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49019055902766812</c:v>
+                  <c:v>0.20528735817470123</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.50612656134492595</c:v>
+                  <c:v>0.21287515597101136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.52285453174956276</c:v>
+                  <c:v>0.22074538674184591</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.54024942264883435</c:v>
+                  <c:v>0.22885345580701671</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.55821119596854574</c:v>
+                  <c:v>0.23716368742237343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57665886850577674</c:v>
+                  <c:v>0.2456472012236037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.59552618127632018</c:v>
+                  <c:v>0.25428036782172486</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6147583985975702</c:v>
+                  <c:v>0.26304366728670758</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.63430990740068838</c:v>
+                  <c:v>0.27192083301019421</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65414239270785057</c:v>
+                  <c:v>0.28089820104116425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.67422343415320551</c:v>
+                  <c:v>0.28996420957490809</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69452541438806514</c:v>
+                  <c:v>0.2991090096666732</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.71502466139926835</c:v>
+                  <c:v>0.30832415936381424</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.73570076827891728</c:v>
+                  <c:v>0.31760238112094763</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.75653604904016747</c:v>
+                  <c:v>0.32693736773207405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,7 +884,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'76 seat'!$U$5:$U$34</c:f>
+              <c:f>'76 seat'!$T$5:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -978,99 +983,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'76 seat'!$V$5:$V$34</c:f>
+              <c:f>'76 seat'!$U$5:$U$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.9606288617308332</c:v>
+                  <c:v>0.70101054698742349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0131509066062323</c:v>
+                  <c:v>0.36492721152134699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71191891078283909</c:v>
+                  <c:v>0.25930918326715935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5722484047847477</c:v>
+                  <c:v>0.21130748181594394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49720249471677713</c:v>
+                  <c:v>0.18635231108591743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45446888261386698</c:v>
+                  <c:v>0.17292040571648537</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43019944077670552</c:v>
+                  <c:v>0.1660732234102501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41747010535563706</c:v>
+                  <c:v>0.16334149301851289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41243417421196393</c:v>
+                  <c:v>0.16335339723644099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4127836260624676</c:v>
+                  <c:v>0.16528584568113486</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41704972009055424</c:v>
+                  <c:v>0.16861505356347653</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4242532957518283</c:v>
+                  <c:v>0.17299183102405405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43371647266940017</c:v>
+                  <c:v>0.17817443123712068</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44495505057406326</c:v>
+                  <c:v>0.18399017789857167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45761394926839949</c:v>
+                  <c:v>0.19031244171873005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47142685860434491</c:v>
+                  <c:v>0.19704625073033827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.48619012964514502</c:v>
+                  <c:v>0.20411897931137574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5017453687733241</c:v>
+                  <c:v>0.21147414086693755</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51796752839613813</c:v>
+                  <c:v>0.2190671407168357</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53475657043939173</c:v>
+                  <c:v>0.22686230311691974</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55203151170016507</c:v>
+                  <c:v>0.23483074770287732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56972609319425083</c:v>
+                  <c:v>0.24294884508572578</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58778557923904318</c:v>
+                  <c:v>0.25119707533543584</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60616435676570368</c:v>
+                  <c:v>0.25955917184364979</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.62482411079640809</c:v>
+                  <c:v>0.26802147065934712</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64373242096530536</c:v>
+                  <c:v>0.27657240997781829</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.66286166992370743</c:v>
+                  <c:v>0.28520214085431067</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.68218818565845274</c:v>
+                  <c:v>0.29390222133617905</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.70169156126164411</c:v>
+                  <c:v>0.30266537387803971</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.72135411074643663</c:v>
+                  <c:v>0.31148529127389346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1295,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1308,7 +1312,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1346,7 +1380,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'50 seat'!$Q$5:$Q$34</c:f>
+              <c:f>'50 seat'!$P$5:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1445,99 +1479,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'50 seat'!$R$5:$R$34</c:f>
+              <c:f>'50 seat'!$Q$5:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.9064798119404376</c:v>
+                  <c:v>0.62694726452788008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4887290444334562</c:v>
+                  <c:v>0.32952824252111884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0319184056925681</c:v>
+                  <c:v>0.23752395085538908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81534279914320296</c:v>
+                  <c:v>0.19687334177491711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69486120547044739</c:v>
+                  <c:v>0.17676420572854828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62242661823599632</c:v>
+                  <c:v>0.16692580619923106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57744746325200513</c:v>
+                  <c:v>0.16295639896537184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54962795342455117</c:v>
+                  <c:v>0.16265511191617391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53324820703478892</c:v>
+                  <c:v>0.16479923832341684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52487629505141087</c:v>
+                  <c:v>0.16865515415016835</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.52232826263631205</c:v>
+                  <c:v>0.17375600773656247</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52414813989742282</c:v>
+                  <c:v>0.17979056464268858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52932794767869462</c:v>
+                  <c:v>0.18654335487168539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.53714770086866459</c:v>
+                  <c:v>0.19386047128293779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54707941038559293</c:v>
+                  <c:v>0.20162904863999467</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55872708441817509</c:v>
+                  <c:v>0.20976443801551767</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57178790569894267</c:v>
+                  <c:v>0.21820190787683633</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58602634968653133</c:v>
+                  <c:v>0.22689111147631796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.60125647595354859</c:v>
+                  <c:v>0.23579230138162113</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61732953215807984</c:v>
+                  <c:v>0.24487367964687257</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63412509973762299</c:v>
+                  <c:v>0.25410950507779395</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65154465441376774</c:v>
+                  <c:v>0.26347871669724848</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66950680656521799</c:v>
+                  <c:v>0.27296391630673184</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6879437315075605</c:v>
+                  <c:v>0.28255060540749039</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.70679845650588846</c:v>
+                  <c:v>0.29222660526057109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.72602277386143388</c:v>
+                  <c:v>0.30198161077916763</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74557561775672854</c:v>
+                  <c:v>0.31180684355600041</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7654217889196564</c:v>
+                  <c:v>0.32169477924197265</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78553094315011718</c:v>
+                  <c:v>0.33163893132924244</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.80587678214135794</c:v>
+                  <c:v>0.34163367817767992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1615,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'50 seat'!$S$5:$S$34</c:f>
+              <c:f>'50 seat'!$R$5:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1680,99 +1714,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'50 seat'!$T$5:$T$34</c:f>
+              <c:f>'50 seat'!$S$5:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.9052123427096079</c:v>
+                  <c:v>0.62637388559012364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4861941059717965</c:v>
+                  <c:v>0.32838148464560607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0281159980000782</c:v>
+                  <c:v>0.23580381404211989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81027292221988345</c:v>
+                  <c:v>0.19457982602389157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68852385931629778</c:v>
+                  <c:v>0.17389731103976636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61482180285101684</c:v>
+                  <c:v>0.16348553257269272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56857517863619567</c:v>
+                  <c:v>0.15894274640107714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53948819957791194</c:v>
+                  <c:v>0.15806808041412279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52184098395731982</c:v>
+                  <c:v>0.15963882788360934</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51220160274311177</c:v>
+                  <c:v>0.16292136477260447</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50838610109718296</c:v>
+                  <c:v>0.1674488394212422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50893850912746375</c:v>
+                  <c:v>0.1729100173896119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5128508476779059</c:v>
+                  <c:v>0.17908942868085231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51940313163704577</c:v>
+                  <c:v>0.18583316615434836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.52806737192314435</c:v>
+                  <c:v>0.19302836457364886</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53844757672489652</c:v>
+                  <c:v>0.20059037501141547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55024092877483421</c:v>
+                  <c:v>0.20845446593497771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56321190353159301</c:v>
+                  <c:v>0.21657029059670296</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.57717456056778016</c:v>
+                  <c:v>0.22489810156424975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59198014754148143</c:v>
+                  <c:v>0.23340610089174479</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.60750824589019492</c:v>
+                  <c:v>0.24206854738490979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62366033133550969</c:v>
+                  <c:v>0.25086438006660794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64035501425613006</c:v>
+                  <c:v>0.25977620073833491</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.65752446996764269</c:v>
+                  <c:v>0.26878951090133701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.67511172573514067</c:v>
+                  <c:v>0.27789213181666134</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.69306857385985632</c:v>
+                  <c:v>0.28707375839750149</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.71135394852432099</c:v>
+                  <c:v>0.29632561223657794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.72993265045641886</c:v>
+                  <c:v>0.30564016898479379</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.74877433545604988</c:v>
+                  <c:v>0.31501094213430719</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.76785270521646054</c:v>
+                  <c:v>0.32443231004498829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,7 +1850,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'50 seat'!$U$5:$U$34</c:f>
+              <c:f>'50 seat'!$T$5:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1915,99 +1949,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'50 seat'!$V$5:$V$34</c:f>
+              <c:f>'50 seat'!$U$5:$U$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.9040737686547944</c:v>
+                  <c:v>0.62585881637485097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4839169578621698</c:v>
+                  <c:v>0.32735134621506068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0247002758356385</c:v>
+                  <c:v>0.23425860639630186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80571862600063016</c:v>
+                  <c:v>0.19251954916280081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68283098904223127</c:v>
+                  <c:v>0.17132196496340293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60799035852213712</c:v>
+                  <c:v>0.1603951172810566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56060516025250262</c:v>
+                  <c:v>0.15533726189416833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53037960713940557</c:v>
+                  <c:v>0.15394752669194134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51159381746400012</c:v>
+                  <c:v>0.15500320494615516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50081586219497876</c:v>
+                  <c:v>0.15777067261987762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49586178649423673</c:v>
+                  <c:v>0.16178307805324266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.49527562046970419</c:v>
+                  <c:v>0.16672918680633969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49804938496533291</c:v>
+                  <c:v>0.17239352888230741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50346309486965968</c:v>
+                  <c:v>0.17862219714053076</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51098876110094471</c:v>
+                  <c:v>0.18530232634455857</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52023039184788378</c:v>
+                  <c:v>0.19234926756705251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53088516984300804</c:v>
+                  <c:v>0.19969828927534206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.54271757054495362</c:v>
+                  <c:v>0.20729904472179467</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55554165352632756</c:v>
+                  <c:v>0.21511178647406873</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56920866644521562</c:v>
+                  <c:v>0.22310471658629111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.58359819073911567</c:v>
+                  <c:v>0.23125209386418338</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.59861170212961712</c:v>
+                  <c:v>0.23953285733060886</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.61416781099542417</c:v>
+                  <c:v>0.2479296087870631</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.63019869265212358</c:v>
+                  <c:v>0.2564278497347926</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64664737436480813</c:v>
+                  <c:v>0.26501540143484426</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66346564843471045</c:v>
+                  <c:v>0.27368195880041168</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.68061244904436191</c:v>
+                  <c:v>0.28241874342421536</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.69805257692164646</c:v>
+                  <c:v>0.2912182309571586</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.71575568786646415</c:v>
+                  <c:v>0.30007393489139927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73369548357206171</c:v>
+                  <c:v>0.30898023358680771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,16 +3380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>394285</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3917</xdr:rowOff>
+      <xdr:rowOff>41030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>443849</xdr:colOff>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>3918</xdr:rowOff>
+      <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3384,183 +3418,19 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.2061</cdr:x>
-      <cdr:y>0.2563</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.57146</cdr:x>
-      <cdr:y>0.6076</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCEC5BF-561F-4B36-B618-225B8E482A9A}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1142441" y="715346"/>
-          <a:ext cx="2025181" cy="980495"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
-              <a:cs typeface="+mj-cs"/>
-            </a:rPr>
-            <a:t>Turn Maneuver requirment met</a:t>
-          </a:r>
-          <a:endParaRPr lang="fa-IR" sz="1050" b="1">
-            <a:cs typeface="+mj-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.28283</cdr:x>
-      <cdr:y>0.3661</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.3741</cdr:x>
-      <cdr:y>0.52653</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C5CB1F-C38E-4370-AB69-D96B18B777C4}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="1317143" y="1021793"/>
-          <a:ext cx="425043" cy="447777"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>280614</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>174929</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125563</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>174929</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3585,175 +3455,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>270696</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157371</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>695739</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>58495</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C5CB1F-C38E-4370-AB69-D96B18B777C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2175696" y="3089414"/>
-          <a:ext cx="425043" cy="447777"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>372717</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>136746</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06AEC686-8CB2-4571-8255-DCA079B369A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1648239" y="2766392"/>
-          <a:ext cx="2025181" cy="980495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="1"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
-              <a:cs typeface="+mj-cs"/>
-            </a:rPr>
-            <a:t>Turn Maneuver requirment met</a:t>
-          </a:r>
-          <a:endParaRPr lang="fa-IR" sz="1050" b="1">
-            <a:cs typeface="+mj-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4021,11 +3722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6857B58F-422C-4964-B558-66FAEC3F49F0}">
+  <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,25 +3737,24 @@
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4073,13 +3773,13 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -4095,31 +3795,28 @@
         <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="U3" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4134,11 +3831,11 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
         <v>21</v>
@@ -4150,21 +3847,20 @@
         <v>19</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="36" t="s">
+      <c r="P4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="36" t="s">
+      <c r="Q4" s="30"/>
+      <c r="R4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="36" t="s">
+      <c r="S4" s="30"/>
+      <c r="T4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="37"/>
+      <c r="U4" s="30"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>32000</v>
       </c>
@@ -4183,7 +3879,7 @@
       <c r="G5" s="8">
         <v>0.79</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="26">
         <f>G5*SQRT(F5*E5*D5)*3.28084</f>
         <v>778.34315194077169</v>
       </c>
@@ -4191,50 +3887,47 @@
         <f>0.5*C5*H5^2</f>
         <v>250.50576870857486</v>
       </c>
-      <c r="J5" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K5" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="J5" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>7</v>
+      </c>
+      <c r="L5" s="28">
         <v>0.53</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="28">
         <v>0.59</v>
       </c>
       <c r="O5" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P5" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="R5" s="27">
-        <f>(((I5*J5)/(Q5))+(((P5^2)*Q5)/(K5*L5*PI()*I5)))*O5</f>
-        <v>1.9631070863150455</v>
-      </c>
-      <c r="S5" s="28">
+      <c r="Q5" s="18">
+        <f>((I5*J5)/(P5))+(((O5^2)*P5)/(K5*L5*PI()*I5))</f>
+        <v>0.7020989951404526</v>
+      </c>
+      <c r="R5" s="7">
         <v>5</v>
       </c>
-      <c r="T5" s="27">
-        <f>(((I5*J5)/(S5))+(((P5^2)*S5)/(K5*M5*PI()*I5)))*O5</f>
-        <v>1.9618015930072907</v>
-      </c>
-      <c r="U5" s="28">
+      <c r="S5" s="18">
+        <f>((I5*J5)/(R5))+(((O5^2)*R5)/(K5*M5*PI()*I5))</f>
+        <v>0.70152561620269616</v>
+      </c>
+      <c r="T5" s="7">
         <v>5</v>
       </c>
-      <c r="V5" s="27">
-        <f>(((I5*J5)/(U5))+(((P5^2)*U5)/(K5*N5*PI()*I5)))*O5</f>
-        <v>1.9606288617308332</v>
+      <c r="U5" s="18">
+        <f>((I5*J5)/(T5))+(((O5^2)*T5)/(K5*N5*PI()*I5))</f>
+        <v>0.70101054698742349</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>32000</v>
       </c>
@@ -4253,7 +3946,7 @@
       <c r="G6" s="8">
         <v>0.79</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="26">
         <f t="shared" ref="H6:H34" si="0">G6*SQRT(F6*E6*D6)*3.28084</f>
         <v>778.34315194077169</v>
       </c>
@@ -4261,11 +3954,11 @@
         <f t="shared" ref="I6:I34" si="1">0.5*C6*H6^2</f>
         <v>250.50576870857486</v>
       </c>
-      <c r="J6" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K6" s="26">
-        <v>9.5</v>
+      <c r="J6" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>7</v>
       </c>
       <c r="L6" s="8">
         <v>0.53</v>
@@ -4277,34 +3970,31 @@
         <v>0.59</v>
       </c>
       <c r="O6" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P6" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="7">
         <v>10</v>
       </c>
-      <c r="R6" s="27">
-        <f t="shared" ref="R6:R34" si="2">(((I6*J6)/(Q6))+(((P6^2)*Q6)/(K6*L6*PI()*I6)))*O6</f>
-        <v>1.0181073557746574</v>
-      </c>
-      <c r="S6" s="28">
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q34" si="2">((I6*J6)/(P6))+(((O6^2)*P6)/(K6*L6*PI()*I6))</f>
+        <v>0.3671041078274051</v>
+      </c>
+      <c r="R6" s="7">
         <v>10</v>
       </c>
-      <c r="T6" s="27">
-        <f t="shared" ref="T6:T34" si="3">(((I6*J6)/(S6))+(((P6^2)*S6)/(K6*M6*PI()*I6)))*O6</f>
-        <v>1.0154963691591479</v>
-      </c>
-      <c r="U6" s="28">
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S34" si="3">((I6*J6)/(R6))+(((O6^2)*R6)/(K6*M6*PI()*I6))</f>
+        <v>0.36595734995189233</v>
+      </c>
+      <c r="T6" s="7">
         <v>10</v>
       </c>
-      <c r="V6" s="27">
-        <f t="shared" ref="V6:V34" si="4">(((I6*J6)/(U6))+(((P6^2)*U6)/(K6*N6*PI()*I6)))*O6</f>
-        <v>1.0131509066062323</v>
+      <c r="U6" s="18">
+        <f t="shared" ref="U6:U34" si="4">((I6*J6)/(T6))+(((O6^2)*T6)/(K6*N6*PI()*I6))</f>
+        <v>0.36492721152134699</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>32000</v>
       </c>
@@ -4323,7 +4013,7 @@
       <c r="G7" s="8">
         <v>0.79</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4331,11 +4021,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J7" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K7" s="26">
-        <v>9.5</v>
+      <c r="J7" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>7</v>
       </c>
       <c r="L7" s="8">
         <v>0.53</v>
@@ -4347,34 +4037,31 @@
         <v>0.59</v>
       </c>
       <c r="O7" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P7" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="7">
         <v>15</v>
       </c>
-      <c r="R7" s="27">
+      <c r="Q7" s="18">
         <f t="shared" si="2"/>
-        <v>0.7193535845354766</v>
-      </c>
-      <c r="S7" s="28">
+        <v>0.26257452772624656</v>
+      </c>
+      <c r="R7" s="7">
         <v>15</v>
       </c>
-      <c r="T7" s="27">
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
-        <v>0.71543710461221222</v>
-      </c>
-      <c r="U7" s="28">
+        <v>0.26085439091297741</v>
+      </c>
+      <c r="T7" s="7">
         <v>15</v>
       </c>
-      <c r="V7" s="27">
+      <c r="U7" s="18">
         <f t="shared" si="4"/>
-        <v>0.71191891078283909</v>
+        <v>0.25930918326715935</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>32000</v>
       </c>
@@ -4393,7 +4080,7 @@
       <c r="G8" s="8">
         <v>0.79</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4401,11 +4088,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J8" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K8" s="26">
-        <v>9.5</v>
+      <c r="J8" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>7</v>
       </c>
       <c r="L8" s="8">
         <v>0.53</v>
@@ -4417,34 +4104,31 @@
         <v>0.59</v>
       </c>
       <c r="O8" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P8" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="7">
         <v>20</v>
       </c>
-      <c r="R8" s="27">
+      <c r="Q8" s="18">
         <f t="shared" si="2"/>
-        <v>0.58216130312159786</v>
-      </c>
-      <c r="S8" s="28">
+        <v>0.21566127442806024</v>
+      </c>
+      <c r="R8" s="7">
         <v>20</v>
       </c>
-      <c r="T8" s="27">
+      <c r="S8" s="18">
         <f t="shared" si="3"/>
-        <v>0.57693932989057861</v>
-      </c>
-      <c r="U8" s="28">
+        <v>0.21336775867703467</v>
+      </c>
+      <c r="T8" s="7">
         <v>20</v>
       </c>
-      <c r="V8" s="27">
+      <c r="U8" s="18">
         <f t="shared" si="4"/>
-        <v>0.5722484047847477</v>
+        <v>0.21130748181594394</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>32000</v>
       </c>
@@ -4463,7 +4147,7 @@
       <c r="G9" s="8">
         <v>0.79</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4471,11 +4155,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J9" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K9" s="26">
-        <v>9.5</v>
+      <c r="J9" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7</v>
       </c>
       <c r="L9" s="8">
         <v>0.53</v>
@@ -4487,34 +4171,31 @@
         <v>0.59</v>
       </c>
       <c r="O9" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P9" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="7">
         <v>25</v>
       </c>
-      <c r="R9" s="27">
+      <c r="Q9" s="18">
         <f t="shared" si="2"/>
-        <v>0.50959361763783972</v>
-      </c>
-      <c r="S9" s="28">
+        <v>0.19179455185106278</v>
+      </c>
+      <c r="R9" s="7">
         <v>25</v>
       </c>
-      <c r="T9" s="27">
+      <c r="S9" s="18">
         <f t="shared" si="3"/>
-        <v>0.50306615109906561</v>
-      </c>
-      <c r="U9" s="28">
+        <v>0.18892765716228083</v>
+      </c>
+      <c r="T9" s="7">
         <v>25</v>
       </c>
-      <c r="V9" s="27">
+      <c r="U9" s="18">
         <f t="shared" si="4"/>
-        <v>0.49720249471677713</v>
+        <v>0.18635231108591743</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>32000</v>
       </c>
@@ -4533,7 +4214,7 @@
       <c r="G10" s="8">
         <v>0.79</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4541,11 +4222,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J10" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K10" s="26">
-        <v>9.5</v>
+      <c r="J10" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>7</v>
       </c>
       <c r="L10" s="8">
         <v>0.53</v>
@@ -4557,34 +4238,31 @@
         <v>0.59</v>
       </c>
       <c r="O10" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P10" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="P10" s="7">
         <v>30</v>
       </c>
-      <c r="R10" s="27">
+      <c r="Q10" s="18">
         <f t="shared" si="2"/>
-        <v>0.46933823011914194</v>
-      </c>
-      <c r="S10" s="28">
+        <v>0.1794510946346598</v>
+      </c>
+      <c r="R10" s="7">
         <v>30</v>
       </c>
-      <c r="T10" s="27">
+      <c r="S10" s="18">
         <f t="shared" si="3"/>
-        <v>0.46150527027261312</v>
-      </c>
-      <c r="U10" s="28">
+        <v>0.17601082100812146</v>
+      </c>
+      <c r="T10" s="7">
         <v>30</v>
       </c>
-      <c r="V10" s="27">
+      <c r="U10" s="18">
         <f t="shared" si="4"/>
-        <v>0.45446888261386698</v>
+        <v>0.17292040571648537</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>32000</v>
       </c>
@@ -4603,7 +4281,7 @@
       <c r="G11" s="8">
         <v>0.79</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4611,11 +4289,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J11" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K11" s="26">
-        <v>9.5</v>
+      <c r="J11" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7</v>
       </c>
       <c r="L11" s="8">
         <v>0.53</v>
@@ -4627,34 +4305,31 @@
         <v>0.59</v>
       </c>
       <c r="O11" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P11" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="P11" s="7">
         <v>35</v>
       </c>
-      <c r="R11" s="27">
+      <c r="Q11" s="18">
         <f t="shared" si="2"/>
-        <v>0.44754701286619303</v>
-      </c>
-      <c r="S11" s="28">
+        <v>0.17369236048145364</v>
+      </c>
+      <c r="R11" s="7">
         <v>35</v>
       </c>
-      <c r="T11" s="27">
+      <c r="S11" s="18">
         <f t="shared" si="3"/>
-        <v>0.4384085597119094</v>
-      </c>
-      <c r="U11" s="28">
+        <v>0.16967870791715892</v>
+      </c>
+      <c r="T11" s="7">
         <v>35</v>
       </c>
-      <c r="V11" s="27">
+      <c r="U11" s="18">
         <f t="shared" si="4"/>
-        <v>0.43019944077670552</v>
+        <v>0.1660732234102501</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>32000</v>
       </c>
@@ -4673,7 +4348,7 @@
       <c r="G12" s="8">
         <v>0.79</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4681,11 +4356,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J12" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K12" s="26">
-        <v>9.5</v>
+      <c r="J12" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>7</v>
       </c>
       <c r="L12" s="8">
         <v>0.53</v>
@@ -4697,34 +4372,31 @@
         <v>0.59</v>
       </c>
       <c r="O12" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P12" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="P12" s="7">
         <v>40</v>
       </c>
-      <c r="R12" s="27">
+      <c r="Q12" s="18">
         <f t="shared" si="2"/>
-        <v>0.4372959020293371</v>
-      </c>
-      <c r="S12" s="28">
+        <v>0.17204907824274546</v>
+      </c>
+      <c r="R12" s="7">
         <v>40</v>
       </c>
-      <c r="T12" s="27">
+      <c r="S12" s="18">
         <f t="shared" si="3"/>
-        <v>0.4268519555672986</v>
-      </c>
-      <c r="U12" s="28">
+        <v>0.16746204674069437</v>
+      </c>
+      <c r="T12" s="7">
         <v>40</v>
       </c>
-      <c r="V12" s="27">
+      <c r="U12" s="18">
         <f t="shared" si="4"/>
-        <v>0.41747010535563706</v>
+        <v>0.16334149301851289</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>32000</v>
       </c>
@@ -4743,7 +4415,7 @@
       <c r="G13" s="8">
         <v>0.79</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4751,11 +4423,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J13" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K13" s="26">
-        <v>9.5</v>
+      <c r="J13" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>7</v>
       </c>
       <c r="L13" s="8">
         <v>0.53</v>
@@ -4767,34 +4439,31 @@
         <v>0.59</v>
       </c>
       <c r="O13" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P13" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="P13" s="7">
         <v>45</v>
       </c>
-      <c r="R13" s="27">
+      <c r="Q13" s="18">
         <f t="shared" si="2"/>
-        <v>0.43473819546987652</v>
-      </c>
-      <c r="S13" s="28">
+        <v>0.17314943061370267</v>
+      </c>
+      <c r="R13" s="7">
         <v>45</v>
       </c>
-      <c r="T13" s="27">
+      <c r="S13" s="18">
         <f t="shared" si="3"/>
-        <v>0.42298875570008321</v>
-      </c>
-      <c r="U13" s="28">
+        <v>0.16798902017389516</v>
+      </c>
+      <c r="T13" s="7">
         <v>45</v>
       </c>
-      <c r="V13" s="27">
+      <c r="U13" s="18">
         <f t="shared" si="4"/>
-        <v>0.41243417421196393</v>
+        <v>0.16335339723644099</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>32000</v>
       </c>
@@ -4813,7 +4482,7 @@
       <c r="G14" s="8">
         <v>0.79</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4821,11 +4490,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J14" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K14" s="26">
-        <v>9.5</v>
+      <c r="J14" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>7</v>
       </c>
       <c r="L14" s="8">
         <v>0.53</v>
@@ -4837,34 +4506,31 @@
         <v>0.59</v>
       </c>
       <c r="O14" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P14" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="P14" s="7">
         <v>50</v>
       </c>
-      <c r="R14" s="27">
+      <c r="Q14" s="18">
         <f t="shared" si="2"/>
-        <v>0.43756587190459267</v>
-      </c>
-      <c r="S14" s="28">
+        <v>0.17617032721142559</v>
+      </c>
+      <c r="R14" s="7">
         <v>50</v>
       </c>
-      <c r="T14" s="27">
+      <c r="S14" s="18">
         <f t="shared" si="3"/>
-        <v>0.42451093882704455</v>
-      </c>
-      <c r="U14" s="28">
+        <v>0.1704365378338617</v>
+      </c>
+      <c r="T14" s="7">
         <v>50</v>
       </c>
-      <c r="V14" s="27">
+      <c r="U14" s="18">
         <f t="shared" si="4"/>
-        <v>0.4127836260624676</v>
+        <v>0.16528584568113486</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>32000</v>
       </c>
@@ -4883,7 +4549,7 @@
       <c r="G15" s="8">
         <v>0.79</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4891,11 +4557,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J15" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K15" s="26">
-        <v>9.5</v>
+      <c r="J15" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7</v>
       </c>
       <c r="L15" s="8">
         <v>0.53</v>
@@ -4907,34 +4573,31 @@
         <v>0.59</v>
       </c>
       <c r="O15" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P15" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="P15" s="7">
         <v>55</v>
       </c>
-      <c r="R15" s="27">
+      <c r="Q15" s="18">
         <f t="shared" si="2"/>
-        <v>0.44431019051689186</v>
-      </c>
-      <c r="S15" s="28">
+        <v>0.18058798324679634</v>
+      </c>
+      <c r="R15" s="7">
         <v>55</v>
       </c>
-      <c r="T15" s="27">
+      <c r="S15" s="18">
         <f t="shared" si="3"/>
-        <v>0.42994976413158886</v>
-      </c>
-      <c r="U15" s="28">
+        <v>0.17428081493147607</v>
+      </c>
+      <c r="T15" s="7">
         <v>55</v>
       </c>
-      <c r="V15" s="27">
+      <c r="U15" s="18">
         <f t="shared" si="4"/>
-        <v>0.41704972009055424</v>
+        <v>0.16861505356347653</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>32000</v>
       </c>
@@ -4953,7 +4616,7 @@
       <c r="G16" s="8">
         <v>0.79</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4961,11 +4624,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J16" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K16" s="26">
-        <v>9.5</v>
+      <c r="J16" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>7</v>
       </c>
       <c r="L16" s="8">
         <v>0.53</v>
@@ -4977,34 +4640,31 @@
         <v>0.59</v>
       </c>
       <c r="O16" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P16" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="7">
         <v>60</v>
       </c>
-      <c r="R16" s="27">
+      <c r="Q16" s="18">
         <f t="shared" si="2"/>
-        <v>0.45399199076237823</v>
-      </c>
-      <c r="S16" s="28">
+        <v>0.18605320886040294</v>
+      </c>
+      <c r="R16" s="7">
         <v>60</v>
       </c>
-      <c r="T16" s="27">
+      <c r="S16" s="18">
         <f t="shared" si="3"/>
-        <v>0.43832607106932064</v>
-      </c>
-      <c r="U16" s="28">
+        <v>0.17917266160732628</v>
+      </c>
+      <c r="T16" s="7">
         <v>60</v>
       </c>
-      <c r="V16" s="27">
+      <c r="U16" s="18">
         <f t="shared" si="4"/>
-        <v>0.4242532957518283</v>
+        <v>0.17299183102405405</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>32000</v>
       </c>
@@ -5023,7 +4683,7 @@
       <c r="G17" s="8">
         <v>0.79</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5031,11 +4691,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J17" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K17" s="26">
-        <v>9.5</v>
+      <c r="J17" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>7</v>
       </c>
       <c r="L17" s="8">
         <v>0.53</v>
@@ -5047,34 +4707,31 @@
         <v>0.59</v>
       </c>
       <c r="O17" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P17" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="P17" s="7">
         <v>65</v>
       </c>
-      <c r="R17" s="27">
+      <c r="Q17" s="18">
         <f t="shared" si="2"/>
-        <v>0.46593339226416275</v>
-      </c>
-      <c r="S17" s="28">
+        <v>0.19232425722649865</v>
+      </c>
+      <c r="R17" s="7">
         <v>65</v>
       </c>
-      <c r="T17" s="27">
+      <c r="S17" s="18">
         <f t="shared" si="3"/>
-        <v>0.4489619792633503</v>
-      </c>
-      <c r="U17" s="28">
+        <v>0.18487033103566558</v>
+      </c>
+      <c r="T17" s="7">
         <v>65</v>
       </c>
-      <c r="V17" s="27">
+      <c r="U17" s="18">
         <f t="shared" si="4"/>
-        <v>0.43371647266940017</v>
+        <v>0.17817443123712068</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>32000</v>
       </c>
@@ -5093,7 +4750,7 @@
       <c r="G18" s="8">
         <v>0.79</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5101,11 +4758,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J18" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K18" s="26">
-        <v>9.5</v>
+      <c r="J18" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>7</v>
       </c>
       <c r="L18" s="8">
         <v>0.53</v>
@@ -5117,34 +4774,31 @@
         <v>0.59</v>
       </c>
       <c r="O18" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P18" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="P18" s="7">
         <v>70</v>
       </c>
-      <c r="R18" s="27">
+      <c r="Q18" s="18">
         <f t="shared" si="2"/>
-        <v>0.47965019475303838</v>
-      </c>
-      <c r="S18" s="28">
+        <v>0.19922845204097869</v>
+      </c>
+      <c r="R18" s="7">
         <v>70</v>
       </c>
-      <c r="T18" s="27">
+      <c r="S18" s="18">
         <f t="shared" si="3"/>
-        <v>0.46137328844447112</v>
-      </c>
-      <c r="U18" s="28">
+        <v>0.19120114691238926</v>
+      </c>
+      <c r="T18" s="7">
         <v>70</v>
       </c>
-      <c r="V18" s="27">
+      <c r="U18" s="18">
         <f t="shared" si="4"/>
-        <v>0.44495505057406326</v>
+        <v>0.18399017789857167</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>32000</v>
       </c>
@@ -5163,7 +4817,7 @@
       <c r="G19" s="8">
         <v>0.79</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5171,11 +4825,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J19" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K19" s="26">
-        <v>9.5</v>
+      <c r="J19" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>7</v>
       </c>
       <c r="L19" s="8">
         <v>0.53</v>
@@ -5187,34 +4841,31 @@
         <v>0.59</v>
       </c>
       <c r="O19" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P19" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="P19" s="7">
         <v>75</v>
       </c>
-      <c r="R19" s="27">
+      <c r="Q19" s="18">
         <f t="shared" si="2"/>
-        <v>0.4947873180315871</v>
-      </c>
-      <c r="S19" s="28">
+        <v>0.20663916401416615</v>
+      </c>
+      <c r="R19" s="7">
         <v>75</v>
       </c>
-      <c r="T19" s="27">
+      <c r="S19" s="18">
         <f t="shared" si="3"/>
-        <v>0.47520491841526491</v>
-      </c>
-      <c r="U19" s="28">
+        <v>0.19803847994782034</v>
+      </c>
+      <c r="T19" s="7">
         <v>75</v>
       </c>
-      <c r="V19" s="27">
+      <c r="U19" s="18">
         <f t="shared" si="4"/>
-        <v>0.45761394926839949</v>
+        <v>0.19031244171873005</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>32000</v>
       </c>
@@ -5233,7 +4884,7 @@
       <c r="G20" s="8">
         <v>0.79</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5241,11 +4892,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J20" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K20" s="26">
-        <v>9.5</v>
+      <c r="J20" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7</v>
       </c>
       <c r="L20" s="8">
         <v>0.53</v>
@@ -5257,34 +4908,31 @@
         <v>0.59</v>
       </c>
       <c r="O20" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P20" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="P20" s="7">
         <v>80</v>
       </c>
-      <c r="R20" s="27">
+      <c r="Q20" s="18">
         <f t="shared" si="2"/>
-        <v>0.51107845195174495</v>
-      </c>
-      <c r="S20" s="28">
+        <v>0.21446142117880346</v>
+      </c>
+      <c r="R20" s="7">
         <v>80</v>
       </c>
-      <c r="T20" s="27">
+      <c r="S20" s="18">
         <f t="shared" si="3"/>
-        <v>0.49019055902766812</v>
-      </c>
-      <c r="U20" s="28">
+        <v>0.20528735817470123</v>
+      </c>
+      <c r="T20" s="7">
         <v>80</v>
       </c>
-      <c r="V20" s="27">
+      <c r="U20" s="18">
         <f t="shared" si="4"/>
-        <v>0.47142685860434491</v>
+        <v>0.19704625073033827</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>32000</v>
       </c>
@@ -5303,7 +4951,7 @@
       <c r="G21" s="8">
         <v>0.79</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5311,11 +4959,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J21" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K21" s="26">
-        <v>9.5</v>
+      <c r="J21" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>7</v>
       </c>
       <c r="L21" s="8">
         <v>0.53</v>
@@ -5327,34 +4975,31 @@
         <v>0.59</v>
       </c>
       <c r="O21" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P21" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="P21" s="7">
         <v>85</v>
       </c>
-      <c r="R21" s="27">
+      <c r="Q21" s="18">
         <f t="shared" si="2"/>
-        <v>0.52831994757675771</v>
-      </c>
-      <c r="S21" s="28">
+        <v>0.22262259791286998</v>
+      </c>
+      <c r="R21" s="7">
         <v>85</v>
       </c>
-      <c r="T21" s="27">
+      <c r="S21" s="18">
         <f t="shared" si="3"/>
-        <v>0.50612656134492595</v>
-      </c>
-      <c r="U21" s="28">
+        <v>0.21287515597101136</v>
+      </c>
+      <c r="T21" s="7">
         <v>85</v>
       </c>
-      <c r="V21" s="27">
+      <c r="U21" s="18">
         <f t="shared" si="4"/>
-        <v>0.48619012964514502</v>
+        <v>0.20411897931137574</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>32000</v>
       </c>
@@ -5373,7 +5018,7 @@
       <c r="G22" s="8">
         <v>0.79</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5381,11 +5026,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J22" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K22" s="26">
-        <v>9.5</v>
+      <c r="J22" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>7</v>
       </c>
       <c r="L22" s="8">
         <v>0.53</v>
@@ -5397,34 +5042,31 @@
         <v>0.59</v>
       </c>
       <c r="O22" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P22" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="P22" s="7">
         <v>90</v>
       </c>
-      <c r="R22" s="27">
+      <c r="Q22" s="18">
         <f t="shared" si="2"/>
-        <v>0.54635341128914927</v>
-      </c>
-      <c r="S22" s="28">
+        <v>0.23106620762146091</v>
+      </c>
+      <c r="R22" s="7">
         <v>90</v>
       </c>
-      <c r="T22" s="27">
+      <c r="S22" s="18">
         <f t="shared" si="3"/>
-        <v>0.52285453174956276</v>
-      </c>
-      <c r="U22" s="28">
+        <v>0.22074538674184591</v>
+      </c>
+      <c r="T22" s="7">
         <v>90</v>
       </c>
-      <c r="V22" s="27">
+      <c r="U22" s="18">
         <f t="shared" si="4"/>
-        <v>0.5017453687733241</v>
+        <v>0.21147414086693755</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>32000</v>
       </c>
@@ -5443,7 +5085,7 @@
       <c r="G23" s="8">
         <v>0.79</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5451,11 +5093,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J23" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K23" s="26">
-        <v>9.5</v>
+      <c r="J23" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>7</v>
       </c>
       <c r="L23" s="8">
         <v>0.53</v>
@@ -5467,34 +5109,31 @@
         <v>0.59</v>
       </c>
       <c r="O23" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P23" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="P23" s="7">
         <v>95</v>
       </c>
-      <c r="R23" s="27">
+      <c r="Q23" s="18">
         <f t="shared" si="2"/>
-        <v>0.56505379549617574</v>
-      </c>
-      <c r="S23" s="28">
+        <v>0.2397476556243881</v>
+      </c>
+      <c r="R23" s="7">
         <v>95</v>
       </c>
-      <c r="T23" s="27">
+      <c r="S23" s="18">
         <f t="shared" si="3"/>
-        <v>0.54024942264883435</v>
-      </c>
-      <c r="U23" s="28">
+        <v>0.22885345580701671</v>
+      </c>
+      <c r="T23" s="7">
         <v>95</v>
       </c>
-      <c r="V23" s="27">
+      <c r="U23" s="18">
         <f t="shared" si="4"/>
-        <v>0.51796752839613813</v>
+        <v>0.2190671407168357</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>32000</v>
       </c>
@@ -5513,7 +5152,7 @@
       <c r="G24" s="8">
         <v>0.79</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5521,11 +5160,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J24" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K24" s="26">
-        <v>9.5</v>
+      <c r="J24" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>7</v>
       </c>
       <c r="L24" s="8">
         <v>0.53</v>
@@ -5537,34 +5176,31 @@
         <v>0.59</v>
       </c>
       <c r="O24" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P24" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="P24" s="7">
         <v>100</v>
       </c>
-      <c r="R24" s="27">
+      <c r="Q24" s="18">
         <f t="shared" si="2"/>
-        <v>0.58432106212364188</v>
-      </c>
-      <c r="S24" s="28">
+        <v>0.2486312661775012</v>
+      </c>
+      <c r="R24" s="7">
         <v>100</v>
       </c>
-      <c r="T24" s="27">
+      <c r="S24" s="18">
         <f t="shared" si="3"/>
-        <v>0.55821119596854574</v>
-      </c>
-      <c r="U24" s="28">
+        <v>0.23716368742237343</v>
+      </c>
+      <c r="T24" s="7">
         <v>100</v>
       </c>
-      <c r="V24" s="27">
+      <c r="U24" s="18">
         <f t="shared" si="4"/>
-        <v>0.53475657043939173</v>
+        <v>0.22686230311691974</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>32000</v>
       </c>
@@ -5583,7 +5219,7 @@
       <c r="G25" s="8">
         <v>0.79</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5591,11 +5227,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J25" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K25" s="26">
-        <v>9.5</v>
+      <c r="J25" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7</v>
       </c>
       <c r="L25" s="8">
         <v>0.53</v>
@@ -5607,34 +5243,31 @@
         <v>0.59</v>
       </c>
       <c r="O25" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P25" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="P25" s="7">
         <v>105</v>
       </c>
-      <c r="R25" s="27">
+      <c r="Q25" s="18">
         <f t="shared" si="2"/>
-        <v>0.60407422796862764</v>
-      </c>
-      <c r="S25" s="28">
+        <v>0.25768815891648789</v>
+      </c>
+      <c r="R25" s="7">
         <v>105</v>
       </c>
-      <c r="T25" s="27">
+      <c r="S25" s="18">
         <f t="shared" si="3"/>
-        <v>0.57665886850577674</v>
-      </c>
-      <c r="U25" s="28">
+        <v>0.2456472012236037</v>
+      </c>
+      <c r="T25" s="7">
         <v>105</v>
       </c>
-      <c r="V25" s="27">
+      <c r="U25" s="18">
         <f t="shared" si="4"/>
-        <v>0.55203151170016507</v>
+        <v>0.23483074770287732</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>32000</v>
       </c>
@@ -5653,7 +5286,7 @@
       <c r="G26" s="8">
         <v>0.79</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5661,11 +5294,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J26" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K26" s="26">
-        <v>9.5</v>
+      <c r="J26" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>7</v>
       </c>
       <c r="L26" s="8">
         <v>0.53</v>
@@ -5677,34 +5310,31 @@
         <v>0.59</v>
       </c>
       <c r="O26" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P26" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="P26" s="7">
         <v>110</v>
       </c>
-      <c r="R26" s="27">
+      <c r="Q26" s="18">
         <f t="shared" si="2"/>
-        <v>0.62424703404692594</v>
-      </c>
-      <c r="S26" s="28">
+        <v>0.26689470445236541</v>
+      </c>
+      <c r="R26" s="7">
         <v>110</v>
       </c>
-      <c r="T26" s="27">
+      <c r="S26" s="18">
         <f t="shared" si="3"/>
-        <v>0.59552618127632018</v>
-      </c>
-      <c r="U26" s="28">
+        <v>0.25428036782172486</v>
+      </c>
+      <c r="T26" s="7">
         <v>110</v>
       </c>
-      <c r="V26" s="27">
+      <c r="U26" s="18">
         <f t="shared" si="4"/>
-        <v>0.56972609319425083</v>
+        <v>0.24294884508572578</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>32000</v>
       </c>
@@ -5723,7 +5353,7 @@
       <c r="G27" s="8">
         <v>0.79</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5731,11 +5361,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J27" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K27" s="26">
-        <v>9.5</v>
+      <c r="J27" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>7</v>
       </c>
       <c r="L27" s="8">
         <v>0.53</v>
@@ -5747,34 +5377,31 @@
         <v>0.59</v>
       </c>
       <c r="O27" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P27" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="P27" s="7">
         <v>115</v>
       </c>
-      <c r="R27" s="27">
+      <c r="Q27" s="18">
         <f t="shared" si="2"/>
-        <v>0.64478474467593083</v>
-      </c>
-      <c r="S27" s="28">
+        <v>0.27623138285510451</v>
+      </c>
+      <c r="R27" s="7">
         <v>115</v>
       </c>
-      <c r="T27" s="27">
+      <c r="S27" s="18">
         <f t="shared" si="3"/>
-        <v>0.6147583985975702</v>
-      </c>
-      <c r="U27" s="28">
+        <v>0.26304366728670758</v>
+      </c>
+      <c r="T27" s="7">
         <v>115</v>
       </c>
-      <c r="V27" s="27">
+      <c r="U27" s="18">
         <f t="shared" si="4"/>
-        <v>0.58778557923904318</v>
+        <v>0.25119707533543584</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>32000</v>
       </c>
@@ -5793,7 +5420,7 @@
       <c r="G28" s="8">
         <v>0.79</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5801,11 +5428,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J28" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K28" s="26">
-        <v>9.5</v>
+      <c r="J28" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>7</v>
       </c>
       <c r="L28" s="8">
         <v>0.53</v>
@@ -5817,34 +5444,31 @@
         <v>0.59</v>
       </c>
       <c r="O28" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P28" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="P28" s="7">
         <v>120</v>
       </c>
-      <c r="R28" s="27">
+      <c r="Q28" s="18">
         <f t="shared" si="2"/>
-        <v>0.66564174678680377</v>
-      </c>
-      <c r="S28" s="28">
+        <v>0.28568192751634758</v>
+      </c>
+      <c r="R28" s="7">
         <v>120</v>
       </c>
-      <c r="T28" s="27">
+      <c r="S28" s="18">
         <f t="shared" si="3"/>
-        <v>0.63430990740068838</v>
-      </c>
-      <c r="U28" s="28">
+        <v>0.27192083301019421</v>
+      </c>
+      <c r="T28" s="7">
         <v>120</v>
       </c>
-      <c r="V28" s="27">
+      <c r="U28" s="18">
         <f t="shared" si="4"/>
-        <v>0.60616435676570368</v>
+        <v>0.25955917184364979</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>32000</v>
       </c>
@@ -5863,7 +5487,7 @@
       <c r="G29" s="8">
         <v>0.79</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5871,11 +5495,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J29" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K29" s="26">
-        <v>9.5</v>
+      <c r="J29" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>7</v>
       </c>
       <c r="L29" s="8">
         <v>0.53</v>
@@ -5887,34 +5511,31 @@
         <v>0.59</v>
       </c>
       <c r="O29" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P29" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="P29" s="7">
         <v>125</v>
       </c>
-      <c r="R29" s="27">
+      <c r="Q29" s="18">
         <f t="shared" si="2"/>
-        <v>0.68677972540172083</v>
-      </c>
-      <c r="S29" s="28">
+        <v>0.29523267448507401</v>
+      </c>
+      <c r="R29" s="7">
         <v>125</v>
       </c>
-      <c r="T29" s="27">
+      <c r="S29" s="18">
         <f t="shared" si="3"/>
-        <v>0.65414239270785057</v>
-      </c>
-      <c r="U29" s="28">
+        <v>0.28089820104116425</v>
+      </c>
+      <c r="T29" s="7">
         <v>125</v>
       </c>
-      <c r="V29" s="27">
+      <c r="U29" s="18">
         <f t="shared" si="4"/>
-        <v>0.62482411079640809</v>
+        <v>0.26802147065934712</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>32000</v>
       </c>
@@ -5933,7 +5554,7 @@
       <c r="G30" s="8">
         <v>0.79</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5941,11 +5562,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J30" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K30" s="26">
-        <v>9.5</v>
+      <c r="J30" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>7</v>
       </c>
       <c r="L30" s="8">
         <v>0.53</v>
@@ -5957,34 +5578,31 @@
         <v>0.59</v>
       </c>
       <c r="O30" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P30" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="P30" s="7">
         <v>130</v>
       </c>
-      <c r="R30" s="27">
+      <c r="Q30" s="18">
         <f t="shared" si="2"/>
-        <v>0.70816626015483053</v>
-      </c>
-      <c r="S30" s="28">
+        <v>0.30487206195657424</v>
+      </c>
+      <c r="R30" s="7">
         <v>130</v>
       </c>
-      <c r="T30" s="27">
+      <c r="S30" s="18">
         <f t="shared" si="3"/>
-        <v>0.67422343415320551</v>
-      </c>
-      <c r="U30" s="28">
+        <v>0.28996420957490809</v>
+      </c>
+      <c r="T30" s="7">
         <v>130</v>
       </c>
-      <c r="V30" s="27">
+      <c r="U30" s="18">
         <f t="shared" si="4"/>
-        <v>0.64373242096530536</v>
+        <v>0.27657240997781829</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>32000</v>
       </c>
@@ -6003,7 +5621,7 @@
       <c r="G31" s="8">
         <v>0.79</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6011,11 +5629,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J31" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K31" s="26">
-        <v>9.5</v>
+      <c r="J31" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>7</v>
       </c>
       <c r="L31" s="8">
         <v>0.53</v>
@@ -6027,34 +5645,31 @@
         <v>0.59</v>
       </c>
       <c r="O31" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P31" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="P31" s="7">
         <v>135</v>
       </c>
-      <c r="R31" s="27">
+      <c r="Q31" s="18">
         <f t="shared" si="2"/>
-        <v>0.72977373369744503</v>
-      </c>
-      <c r="S31" s="28">
+        <v>0.31459024098609567</v>
+      </c>
+      <c r="R31" s="7">
         <v>135</v>
       </c>
-      <c r="T31" s="27">
+      <c r="S31" s="18">
         <f t="shared" si="3"/>
-        <v>0.69452541438806514</v>
-      </c>
-      <c r="U31" s="28">
+        <v>0.2991090096666732</v>
+      </c>
+      <c r="T31" s="7">
         <v>135</v>
       </c>
-      <c r="V31" s="27">
+      <c r="U31" s="18">
         <f t="shared" si="4"/>
-        <v>0.66286166992370743</v>
+        <v>0.28520214085431067</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>32000</v>
       </c>
@@ -6073,7 +5688,7 @@
       <c r="G32" s="8">
         <v>0.79</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6081,11 +5696,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J32" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K32" s="26">
-        <v>9.5</v>
+      <c r="J32" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>7</v>
       </c>
       <c r="L32" s="8">
         <v>0.53</v>
@@ -6097,34 +5712,31 @@
         <v>0.59</v>
       </c>
       <c r="O32" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P32" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="P32" s="7">
         <v>140</v>
       </c>
-      <c r="R32" s="27">
+      <c r="Q32" s="18">
         <f t="shared" si="2"/>
-        <v>0.75157847401640299</v>
-      </c>
-      <c r="S32" s="28">
+        <v>0.3243787696209931</v>
+      </c>
+      <c r="R32" s="7">
         <v>140</v>
       </c>
-      <c r="T32" s="27">
+      <c r="S32" s="18">
         <f t="shared" si="3"/>
-        <v>0.71502466139926835</v>
-      </c>
-      <c r="U32" s="28">
+        <v>0.30832415936381424</v>
+      </c>
+      <c r="T32" s="7">
         <v>140</v>
       </c>
-      <c r="V32" s="27">
+      <c r="U32" s="18">
         <f t="shared" si="4"/>
-        <v>0.68218818565845274</v>
+        <v>0.29390222133617905</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>32000</v>
       </c>
@@ -6143,7 +5755,7 @@
       <c r="G33" s="8">
         <v>0.79</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6151,11 +5763,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J33" s="35">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K33" s="26">
-        <v>9.5</v>
+      <c r="J33" s="21">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>7</v>
       </c>
       <c r="L33" s="8">
         <v>0.53</v>
@@ -6167,41 +5779,38 @@
         <v>0.59</v>
       </c>
       <c r="O33" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="P33" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="P33" s="7">
         <v>145</v>
       </c>
-      <c r="R33" s="27">
+      <c r="Q33" s="18">
         <f t="shared" si="2"/>
-        <v>0.77356007420380657</v>
-      </c>
-      <c r="S33" s="28">
+        <v>0.33423037031588287</v>
+      </c>
+      <c r="R33" s="7">
         <v>145</v>
       </c>
-      <c r="T33" s="27">
+      <c r="S33" s="18">
         <f t="shared" si="3"/>
-        <v>0.73570076827891728</v>
-      </c>
-      <c r="U33" s="28">
+        <v>0.31760238112094763</v>
+      </c>
+      <c r="T33" s="7">
         <v>145</v>
       </c>
-      <c r="V33" s="27">
+      <c r="U33" s="18">
         <f t="shared" si="4"/>
-        <v>0.70169156126164411</v>
+        <v>0.30266537387803971</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>32000</v>
       </c>
       <c r="C34" s="15">
         <v>8.2700000000000004E-4</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>224.44399999999999</v>
       </c>
       <c r="E34" s="10">
@@ -6213,7 +5822,7 @@
       <c r="G34" s="10">
         <v>0.79</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="27">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6221,11 +5830,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J34" s="33">
-        <v>1.252313E-2</v>
-      </c>
-      <c r="K34" s="31">
-        <v>9.5</v>
+      <c r="J34" s="22">
+        <v>1.38E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>7</v>
       </c>
       <c r="L34" s="10">
         <v>0.53</v>
@@ -6237,41 +5846,35 @@
         <v>0.59</v>
       </c>
       <c r="O34" s="10">
-        <v>3.09</v>
-      </c>
-      <c r="P34" s="10">
         <v>2.5</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="P34" s="9">
         <v>150</v>
       </c>
-      <c r="R34" s="32">
+      <c r="Q34" s="18">
         <f t="shared" si="2"/>
-        <v>0.79570084827281184</v>
-      </c>
-      <c r="S34" s="29">
+        <v>0.34413873586476568</v>
+      </c>
+      <c r="R34" s="9">
         <v>150</v>
       </c>
-      <c r="T34" s="32">
+      <c r="S34" s="18">
         <f t="shared" si="3"/>
-        <v>0.75653604904016747</v>
-      </c>
-      <c r="U34" s="29">
+        <v>0.32693736773207405</v>
+      </c>
+      <c r="T34" s="9">
         <v>150</v>
       </c>
-      <c r="V34" s="32">
+      <c r="U34" s="18">
         <f t="shared" si="4"/>
-        <v>0.72135411074643663</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="K35" s="26"/>
+        <v>0.31148529127389346</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6280,42 +5883,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:V34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ACC4D3-6A73-4891-805F-ABFB63A24EA5}">
+  <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -6334,13 +5934,13 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -6356,31 +5956,28 @@
         <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="U3" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -6395,11 +5992,11 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
         <v>21</v>
@@ -6411,21 +6008,20 @@
         <v>19</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="36" t="s">
+      <c r="P4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="36" t="s">
+      <c r="Q4" s="30"/>
+      <c r="R4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="36" t="s">
+      <c r="S4" s="30"/>
+      <c r="T4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="37"/>
+      <c r="U4" s="30"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>32000</v>
       </c>
@@ -6444,7 +6040,7 @@
       <c r="G5" s="8">
         <v>0.79</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="26">
         <f>G5*SQRT(F5*E5*D5)*3.28084</f>
         <v>778.34315194077169</v>
       </c>
@@ -6452,50 +6048,47 @@
         <f>0.5*C5*H5^2</f>
         <v>250.50576870857486</v>
       </c>
-      <c r="J5">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K5" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L5" s="30">
+      <c r="J5" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>7</v>
+      </c>
+      <c r="L5" s="28">
         <v>0.53</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="28">
         <v>0.59</v>
       </c>
-      <c r="O5" s="26">
-        <v>3</v>
-      </c>
-      <c r="P5" s="26">
+      <c r="O5" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="R5" s="27">
-        <f>(((I5*J5)/(Q5))+(((P5^2)*Q5)/(K5*L5*PI()*I5)))*O5</f>
-        <v>2.9064798119404376</v>
-      </c>
-      <c r="S5" s="28">
+      <c r="Q5" s="18">
+        <f>((I5*J5)/(P5))+(((O5^2)*P5)/(K5*L5*PI()*I5))</f>
+        <v>0.62694726452788008</v>
+      </c>
+      <c r="R5" s="7">
         <v>5</v>
       </c>
-      <c r="T5" s="27">
-        <f>(((I5*J5)/(S5))+(((P5^2)*S5)/(K5*M5*PI()*I5)))*O5</f>
-        <v>2.9052123427096079</v>
-      </c>
-      <c r="U5" s="28">
+      <c r="S5" s="18">
+        <f>((I5*J5)/(R5))+(((O5^2)*R5)/(K5*M5*PI()*I5))</f>
+        <v>0.62637388559012364</v>
+      </c>
+      <c r="T5" s="7">
         <v>5</v>
       </c>
-      <c r="V5" s="27">
-        <f>(((I5*J5)/(U5))+(((P5^2)*U5)/(K5*N5*PI()*I5)))*O5</f>
-        <v>2.9040737686547944</v>
+      <c r="U5" s="18">
+        <f>((I5*J5)/(T5))+(((O5^2)*T5)/(K5*N5*PI()*I5))</f>
+        <v>0.62585881637485097</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>32000</v>
       </c>
@@ -6514,7 +6107,7 @@
       <c r="G6" s="8">
         <v>0.79</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="26">
         <f t="shared" ref="H6:H34" si="0">G6*SQRT(F6*E6*D6)*3.28084</f>
         <v>778.34315194077169</v>
       </c>
@@ -6522,50 +6115,47 @@
         <f t="shared" ref="I6:I34" si="1">0.5*C6*H6^2</f>
         <v>250.50576870857486</v>
       </c>
-      <c r="J6">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K6" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L6" s="26">
+      <c r="J6" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>7</v>
+      </c>
+      <c r="L6" s="8">
         <v>0.53</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="8">
         <v>0.59</v>
       </c>
-      <c r="O6" s="26">
-        <v>3</v>
-      </c>
-      <c r="P6" s="26">
+      <c r="O6" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="P6" s="7">
         <v>10</v>
       </c>
-      <c r="R6" s="27">
-        <f t="shared" ref="R6:R34" si="2">(((I6*J6)/(Q6))+(((P6^2)*Q6)/(K6*L6*PI()*I6)))*O6</f>
-        <v>1.4887290444334562</v>
-      </c>
-      <c r="S6" s="28">
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q34" si="2">((I6*J6)/(P6))+(((O6^2)*P6)/(K6*L6*PI()*I6))</f>
+        <v>0.32952824252111884</v>
+      </c>
+      <c r="R6" s="7">
         <v>10</v>
       </c>
-      <c r="T6" s="27">
-        <f t="shared" ref="T6:T34" si="3">(((I6*J6)/(S6))+(((P6^2)*S6)/(K6*M6*PI()*I6)))*O6</f>
-        <v>1.4861941059717965</v>
-      </c>
-      <c r="U6" s="28">
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S34" si="3">((I6*J6)/(R6))+(((O6^2)*R6)/(K6*M6*PI()*I6))</f>
+        <v>0.32838148464560607</v>
+      </c>
+      <c r="T6" s="7">
         <v>10</v>
       </c>
-      <c r="V6" s="27">
-        <f t="shared" ref="V6:V34" si="4">(((I6*J6)/(U6))+(((P6^2)*U6)/(K6*N6*PI()*I6)))*O6</f>
-        <v>1.4839169578621698</v>
+      <c r="U6" s="18">
+        <f t="shared" ref="U6:U34" si="4">((I6*J6)/(T6))+(((O6^2)*T6)/(K6*N6*PI()*I6))</f>
+        <v>0.32735134621506068</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>32000</v>
       </c>
@@ -6584,7 +6174,7 @@
       <c r="G7" s="8">
         <v>0.79</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6592,50 +6182,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J7">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K7" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L7" s="26">
+      <c r="J7" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>7</v>
+      </c>
+      <c r="L7" s="8">
         <v>0.53</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="8">
         <v>0.59</v>
       </c>
-      <c r="O7" s="26">
-        <v>3</v>
-      </c>
-      <c r="P7" s="26">
+      <c r="O7" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="P7" s="7">
         <v>15</v>
       </c>
-      <c r="R7" s="27">
+      <c r="Q7" s="18">
         <f t="shared" si="2"/>
-        <v>1.0319184056925681</v>
-      </c>
-      <c r="S7" s="28">
+        <v>0.23752395085538908</v>
+      </c>
+      <c r="R7" s="7">
         <v>15</v>
       </c>
-      <c r="T7" s="27">
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
-        <v>1.0281159980000782</v>
-      </c>
-      <c r="U7" s="28">
+        <v>0.23580381404211989</v>
+      </c>
+      <c r="T7" s="7">
         <v>15</v>
       </c>
-      <c r="V7" s="27">
+      <c r="U7" s="18">
         <f t="shared" si="4"/>
-        <v>1.0247002758356385</v>
+        <v>0.23425860639630186</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>32000</v>
       </c>
@@ -6654,7 +6241,7 @@
       <c r="G8" s="8">
         <v>0.79</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6662,50 +6249,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J8">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K8" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L8" s="26">
+      <c r="J8" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="8">
         <v>0.53</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="8">
         <v>0.59</v>
       </c>
-      <c r="O8" s="26">
-        <v>3</v>
-      </c>
-      <c r="P8" s="26">
+      <c r="O8" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="P8" s="7">
         <v>20</v>
       </c>
-      <c r="R8" s="27">
+      <c r="Q8" s="18">
         <f t="shared" si="2"/>
-        <v>0.81534279914320296</v>
-      </c>
-      <c r="S8" s="28">
+        <v>0.19687334177491711</v>
+      </c>
+      <c r="R8" s="7">
         <v>20</v>
       </c>
-      <c r="T8" s="27">
+      <c r="S8" s="18">
         <f t="shared" si="3"/>
-        <v>0.81027292221988345</v>
-      </c>
-      <c r="U8" s="28">
+        <v>0.19457982602389157</v>
+      </c>
+      <c r="T8" s="7">
         <v>20</v>
       </c>
-      <c r="V8" s="27">
+      <c r="U8" s="18">
         <f t="shared" si="4"/>
-        <v>0.80571862600063016</v>
+        <v>0.19251954916280081</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>32000</v>
       </c>
@@ -6724,7 +6308,7 @@
       <c r="G9" s="8">
         <v>0.79</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6732,50 +6316,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J9">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K9" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L9" s="26">
+      <c r="J9" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8">
         <v>0.53</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="8">
         <v>0.59</v>
       </c>
-      <c r="O9" s="26">
-        <v>3</v>
-      </c>
-      <c r="P9" s="26">
+      <c r="O9" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="P9" s="7">
         <v>25</v>
       </c>
-      <c r="R9" s="27">
+      <c r="Q9" s="18">
         <f t="shared" si="2"/>
-        <v>0.69486120547044739</v>
-      </c>
-      <c r="S9" s="28">
+        <v>0.17676420572854828</v>
+      </c>
+      <c r="R9" s="7">
         <v>25</v>
       </c>
-      <c r="T9" s="27">
+      <c r="S9" s="18">
         <f t="shared" si="3"/>
-        <v>0.68852385931629778</v>
-      </c>
-      <c r="U9" s="28">
+        <v>0.17389731103976636</v>
+      </c>
+      <c r="T9" s="7">
         <v>25</v>
       </c>
-      <c r="V9" s="27">
+      <c r="U9" s="18">
         <f t="shared" si="4"/>
-        <v>0.68283098904223127</v>
+        <v>0.17132196496340293</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>32000</v>
       </c>
@@ -6794,7 +6375,7 @@
       <c r="G10" s="8">
         <v>0.79</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6802,50 +6383,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J10">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K10" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L10" s="26">
+      <c r="J10" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8">
         <v>0.53</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="8">
         <v>0.59</v>
       </c>
-      <c r="O10" s="26">
-        <v>3</v>
-      </c>
-      <c r="P10" s="26">
+      <c r="O10" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="P10" s="7">
         <v>30</v>
       </c>
-      <c r="R10" s="27">
+      <c r="Q10" s="18">
         <f t="shared" si="2"/>
-        <v>0.62242661823599632</v>
-      </c>
-      <c r="S10" s="28">
+        <v>0.16692580619923106</v>
+      </c>
+      <c r="R10" s="7">
         <v>30</v>
       </c>
-      <c r="T10" s="27">
+      <c r="S10" s="18">
         <f t="shared" si="3"/>
-        <v>0.61482180285101684</v>
-      </c>
-      <c r="U10" s="28">
+        <v>0.16348553257269272</v>
+      </c>
+      <c r="T10" s="7">
         <v>30</v>
       </c>
-      <c r="V10" s="27">
+      <c r="U10" s="18">
         <f t="shared" si="4"/>
-        <v>0.60799035852213712</v>
+        <v>0.1603951172810566</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>32000</v>
       </c>
@@ -6864,7 +6442,7 @@
       <c r="G11" s="8">
         <v>0.79</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6872,50 +6450,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J11">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K11" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L11" s="26">
+      <c r="J11" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7</v>
+      </c>
+      <c r="L11" s="8">
         <v>0.53</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="8">
         <v>0.59</v>
       </c>
-      <c r="O11" s="26">
-        <v>3</v>
-      </c>
-      <c r="P11" s="26">
+      <c r="O11" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="P11" s="7">
         <v>35</v>
       </c>
-      <c r="R11" s="27">
+      <c r="Q11" s="18">
         <f t="shared" si="2"/>
-        <v>0.57744746325200513</v>
-      </c>
-      <c r="S11" s="28">
+        <v>0.16295639896537184</v>
+      </c>
+      <c r="R11" s="7">
         <v>35</v>
       </c>
-      <c r="T11" s="27">
+      <c r="S11" s="18">
         <f t="shared" si="3"/>
-        <v>0.56857517863619567</v>
-      </c>
-      <c r="U11" s="28">
+        <v>0.15894274640107714</v>
+      </c>
+      <c r="T11" s="7">
         <v>35</v>
       </c>
-      <c r="V11" s="27">
+      <c r="U11" s="18">
         <f t="shared" si="4"/>
-        <v>0.56060516025250262</v>
+        <v>0.15533726189416833</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>32000</v>
       </c>
@@ -6934,7 +6509,7 @@
       <c r="G12" s="8">
         <v>0.79</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -6942,50 +6517,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J12">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K12" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L12" s="26">
+      <c r="J12" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>7</v>
+      </c>
+      <c r="L12" s="8">
         <v>0.53</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="8">
         <v>0.59</v>
       </c>
-      <c r="O12" s="26">
-        <v>3</v>
-      </c>
-      <c r="P12" s="26">
+      <c r="O12" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="P12" s="7">
         <v>40</v>
       </c>
-      <c r="R12" s="27">
+      <c r="Q12" s="18">
         <f t="shared" si="2"/>
-        <v>0.54962795342455117</v>
-      </c>
-      <c r="S12" s="28">
+        <v>0.16265511191617391</v>
+      </c>
+      <c r="R12" s="7">
         <v>40</v>
       </c>
-      <c r="T12" s="27">
+      <c r="S12" s="18">
         <f t="shared" si="3"/>
-        <v>0.53948819957791194</v>
-      </c>
-      <c r="U12" s="28">
+        <v>0.15806808041412279</v>
+      </c>
+      <c r="T12" s="7">
         <v>40</v>
       </c>
-      <c r="V12" s="27">
+      <c r="U12" s="18">
         <f t="shared" si="4"/>
-        <v>0.53037960713940557</v>
+        <v>0.15394752669194134</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>32000</v>
       </c>
@@ -7004,7 +6576,7 @@
       <c r="G13" s="8">
         <v>0.79</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7012,50 +6584,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J13">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K13" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L13" s="26">
+      <c r="J13" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>7</v>
+      </c>
+      <c r="L13" s="8">
         <v>0.53</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="8">
         <v>0.59</v>
       </c>
-      <c r="O13" s="26">
-        <v>3</v>
-      </c>
-      <c r="P13" s="26">
+      <c r="O13" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="P13" s="7">
         <v>45</v>
       </c>
-      <c r="R13" s="27">
+      <c r="Q13" s="18">
         <f t="shared" si="2"/>
-        <v>0.53324820703478892</v>
-      </c>
-      <c r="S13" s="28">
+        <v>0.16479923832341684</v>
+      </c>
+      <c r="R13" s="7">
         <v>45</v>
       </c>
-      <c r="T13" s="27">
+      <c r="S13" s="18">
         <f t="shared" si="3"/>
-        <v>0.52184098395731982</v>
-      </c>
-      <c r="U13" s="28">
+        <v>0.15963882788360934</v>
+      </c>
+      <c r="T13" s="7">
         <v>45</v>
       </c>
-      <c r="V13" s="27">
+      <c r="U13" s="18">
         <f t="shared" si="4"/>
-        <v>0.51159381746400012</v>
+        <v>0.15500320494615516</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>32000</v>
       </c>
@@ -7074,7 +6643,7 @@
       <c r="G14" s="8">
         <v>0.79</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7082,50 +6651,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J14">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K14" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L14" s="26">
+      <c r="J14" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>7</v>
+      </c>
+      <c r="L14" s="8">
         <v>0.53</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="8">
         <v>0.59</v>
       </c>
-      <c r="O14" s="26">
-        <v>3</v>
-      </c>
-      <c r="P14" s="26">
+      <c r="O14" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="P14" s="7">
         <v>50</v>
       </c>
-      <c r="R14" s="27">
+      <c r="Q14" s="18">
         <f t="shared" si="2"/>
-        <v>0.52487629505141087</v>
-      </c>
-      <c r="S14" s="28">
+        <v>0.16865515415016835</v>
+      </c>
+      <c r="R14" s="7">
         <v>50</v>
       </c>
-      <c r="T14" s="27">
+      <c r="S14" s="18">
         <f t="shared" si="3"/>
-        <v>0.51220160274311177</v>
-      </c>
-      <c r="U14" s="28">
+        <v>0.16292136477260447</v>
+      </c>
+      <c r="T14" s="7">
         <v>50</v>
       </c>
-      <c r="V14" s="27">
+      <c r="U14" s="18">
         <f t="shared" si="4"/>
-        <v>0.50081586219497876</v>
+        <v>0.15777067261987762</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>32000</v>
       </c>
@@ -7144,7 +6710,7 @@
       <c r="G15" s="8">
         <v>0.79</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7152,50 +6718,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J15">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K15" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L15" s="26">
+      <c r="J15" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7</v>
+      </c>
+      <c r="L15" s="8">
         <v>0.53</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="8">
         <v>0.59</v>
       </c>
-      <c r="O15" s="26">
-        <v>3</v>
-      </c>
-      <c r="P15" s="26">
+      <c r="O15" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="P15" s="7">
         <v>55</v>
       </c>
-      <c r="R15" s="27">
+      <c r="Q15" s="18">
         <f t="shared" si="2"/>
-        <v>0.52232826263631205</v>
-      </c>
-      <c r="S15" s="28">
+        <v>0.17375600773656247</v>
+      </c>
+      <c r="R15" s="7">
         <v>55</v>
       </c>
-      <c r="T15" s="27">
+      <c r="S15" s="18">
         <f t="shared" si="3"/>
-        <v>0.50838610109718296</v>
-      </c>
-      <c r="U15" s="28">
+        <v>0.1674488394212422</v>
+      </c>
+      <c r="T15" s="7">
         <v>55</v>
       </c>
-      <c r="V15" s="27">
+      <c r="U15" s="18">
         <f t="shared" si="4"/>
-        <v>0.49586178649423673</v>
+        <v>0.16178307805324266</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>32000</v>
       </c>
@@ -7214,7 +6777,7 @@
       <c r="G16" s="8">
         <v>0.79</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7222,50 +6785,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J16">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K16" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L16" s="26">
+      <c r="J16" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8">
         <v>0.53</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="8">
         <v>0.59</v>
       </c>
-      <c r="O16" s="26">
-        <v>3</v>
-      </c>
-      <c r="P16" s="26">
+      <c r="O16" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="P16" s="7">
         <v>60</v>
       </c>
-      <c r="R16" s="27">
+      <c r="Q16" s="18">
         <f t="shared" si="2"/>
-        <v>0.52414813989742282</v>
-      </c>
-      <c r="S16" s="28">
+        <v>0.17979056464268858</v>
+      </c>
+      <c r="R16" s="7">
         <v>60</v>
       </c>
-      <c r="T16" s="27">
+      <c r="S16" s="18">
         <f t="shared" si="3"/>
-        <v>0.50893850912746375</v>
-      </c>
-      <c r="U16" s="28">
+        <v>0.1729100173896119</v>
+      </c>
+      <c r="T16" s="7">
         <v>60</v>
       </c>
-      <c r="V16" s="27">
+      <c r="U16" s="18">
         <f t="shared" si="4"/>
-        <v>0.49527562046970419</v>
+        <v>0.16672918680633969</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>32000</v>
       </c>
@@ -7284,7 +6844,7 @@
       <c r="G17" s="8">
         <v>0.79</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7292,50 +6852,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J17">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K17" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L17" s="26">
+      <c r="J17" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>7</v>
+      </c>
+      <c r="L17" s="8">
         <v>0.53</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="8">
         <v>0.59</v>
       </c>
-      <c r="O17" s="26">
-        <v>3</v>
-      </c>
-      <c r="P17" s="26">
+      <c r="O17" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="P17" s="7">
         <v>65</v>
       </c>
-      <c r="R17" s="27">
+      <c r="Q17" s="18">
         <f t="shared" si="2"/>
-        <v>0.52932794767869462</v>
-      </c>
-      <c r="S17" s="28">
+        <v>0.18654335487168539</v>
+      </c>
+      <c r="R17" s="7">
         <v>65</v>
       </c>
-      <c r="T17" s="27">
+      <c r="S17" s="18">
         <f t="shared" si="3"/>
-        <v>0.5128508476779059</v>
-      </c>
-      <c r="U17" s="28">
+        <v>0.17908942868085231</v>
+      </c>
+      <c r="T17" s="7">
         <v>65</v>
       </c>
-      <c r="V17" s="27">
+      <c r="U17" s="18">
         <f t="shared" si="4"/>
-        <v>0.49804938496533291</v>
+        <v>0.17239352888230741</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>32000</v>
       </c>
@@ -7354,7 +6911,7 @@
       <c r="G18" s="8">
         <v>0.79</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7362,50 +6919,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J18">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K18" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L18" s="26">
+      <c r="J18" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>7</v>
+      </c>
+      <c r="L18" s="8">
         <v>0.53</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="8">
         <v>0.59</v>
       </c>
-      <c r="O18" s="26">
-        <v>3</v>
-      </c>
-      <c r="P18" s="26">
+      <c r="O18" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="P18" s="7">
         <v>70</v>
       </c>
-      <c r="R18" s="27">
+      <c r="Q18" s="18">
         <f t="shared" si="2"/>
-        <v>0.53714770086866459</v>
-      </c>
-      <c r="S18" s="28">
+        <v>0.19386047128293779</v>
+      </c>
+      <c r="R18" s="7">
         <v>70</v>
       </c>
-      <c r="T18" s="27">
+      <c r="S18" s="18">
         <f t="shared" si="3"/>
-        <v>0.51940313163704577</v>
-      </c>
-      <c r="U18" s="28">
+        <v>0.18583316615434836</v>
+      </c>
+      <c r="T18" s="7">
         <v>70</v>
       </c>
-      <c r="V18" s="27">
+      <c r="U18" s="18">
         <f t="shared" si="4"/>
-        <v>0.50346309486965968</v>
+        <v>0.17862219714053076</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>32000</v>
       </c>
@@ -7424,7 +6978,7 @@
       <c r="G19" s="8">
         <v>0.79</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7432,50 +6986,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J19">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K19" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L19" s="26">
+      <c r="J19" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>7</v>
+      </c>
+      <c r="L19" s="8">
         <v>0.53</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="8">
         <v>0.59</v>
       </c>
-      <c r="O19" s="26">
-        <v>3</v>
-      </c>
-      <c r="P19" s="26">
+      <c r="O19" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="P19" s="7">
         <v>75</v>
       </c>
-      <c r="R19" s="27">
+      <c r="Q19" s="18">
         <f t="shared" si="2"/>
-        <v>0.54707941038559293</v>
-      </c>
-      <c r="S19" s="28">
+        <v>0.20162904863999467</v>
+      </c>
+      <c r="R19" s="7">
         <v>75</v>
       </c>
-      <c r="T19" s="27">
+      <c r="S19" s="18">
         <f t="shared" si="3"/>
-        <v>0.52806737192314435</v>
-      </c>
-      <c r="U19" s="28">
+        <v>0.19302836457364886</v>
+      </c>
+      <c r="T19" s="7">
         <v>75</v>
       </c>
-      <c r="V19" s="27">
+      <c r="U19" s="18">
         <f t="shared" si="4"/>
-        <v>0.51098876110094471</v>
+        <v>0.18530232634455857</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>32000</v>
       </c>
@@ -7494,7 +7045,7 @@
       <c r="G20" s="8">
         <v>0.79</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7502,50 +7053,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J20">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K20" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L20" s="26">
+      <c r="J20" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7</v>
+      </c>
+      <c r="L20" s="8">
         <v>0.53</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="8">
         <v>0.59</v>
       </c>
-      <c r="O20" s="26">
-        <v>3</v>
-      </c>
-      <c r="P20" s="26">
+      <c r="O20" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="P20" s="7">
         <v>80</v>
       </c>
-      <c r="R20" s="27">
+      <c r="Q20" s="18">
         <f t="shared" si="2"/>
-        <v>0.55872708441817509</v>
-      </c>
-      <c r="S20" s="28">
+        <v>0.20976443801551767</v>
+      </c>
+      <c r="R20" s="7">
         <v>80</v>
       </c>
-      <c r="T20" s="27">
+      <c r="S20" s="18">
         <f t="shared" si="3"/>
-        <v>0.53844757672489652</v>
-      </c>
-      <c r="U20" s="28">
+        <v>0.20059037501141547</v>
+      </c>
+      <c r="T20" s="7">
         <v>80</v>
       </c>
-      <c r="V20" s="27">
+      <c r="U20" s="18">
         <f t="shared" si="4"/>
-        <v>0.52023039184788378</v>
+        <v>0.19234926756705251</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>32000</v>
       </c>
@@ -7564,7 +7112,7 @@
       <c r="G21" s="8">
         <v>0.79</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7572,50 +7120,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J21">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K21" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L21" s="26">
+      <c r="J21" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>7</v>
+      </c>
+      <c r="L21" s="8">
         <v>0.53</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="8">
         <v>0.59</v>
       </c>
-      <c r="O21" s="26">
-        <v>3</v>
-      </c>
-      <c r="P21" s="26">
+      <c r="O21" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="P21" s="7">
         <v>85</v>
       </c>
-      <c r="R21" s="27">
+      <c r="Q21" s="18">
         <f t="shared" si="2"/>
-        <v>0.57178790569894267</v>
-      </c>
-      <c r="S21" s="28">
+        <v>0.21820190787683633</v>
+      </c>
+      <c r="R21" s="7">
         <v>85</v>
       </c>
-      <c r="T21" s="27">
+      <c r="S21" s="18">
         <f t="shared" si="3"/>
-        <v>0.55024092877483421</v>
-      </c>
-      <c r="U21" s="28">
+        <v>0.20845446593497771</v>
+      </c>
+      <c r="T21" s="7">
         <v>85</v>
       </c>
-      <c r="V21" s="27">
+      <c r="U21" s="18">
         <f t="shared" si="4"/>
-        <v>0.53088516984300804</v>
+        <v>0.19969828927534206</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>32000</v>
       </c>
@@ -7634,7 +7179,7 @@
       <c r="G22" s="8">
         <v>0.79</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7642,50 +7187,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J22">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K22" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L22" s="26">
+      <c r="J22" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>7</v>
+      </c>
+      <c r="L22" s="8">
         <v>0.53</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="8">
         <v>0.59</v>
       </c>
-      <c r="O22" s="26">
-        <v>3</v>
-      </c>
-      <c r="P22" s="26">
+      <c r="O22" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="P22" s="7">
         <v>90</v>
       </c>
-      <c r="R22" s="27">
+      <c r="Q22" s="18">
         <f t="shared" si="2"/>
-        <v>0.58602634968653133</v>
-      </c>
-      <c r="S22" s="28">
+        <v>0.22689111147631796</v>
+      </c>
+      <c r="R22" s="7">
         <v>90</v>
       </c>
-      <c r="T22" s="27">
+      <c r="S22" s="18">
         <f t="shared" si="3"/>
-        <v>0.56321190353159301</v>
-      </c>
-      <c r="U22" s="28">
+        <v>0.21657029059670296</v>
+      </c>
+      <c r="T22" s="7">
         <v>90</v>
       </c>
-      <c r="V22" s="27">
+      <c r="U22" s="18">
         <f t="shared" si="4"/>
-        <v>0.54271757054495362</v>
+        <v>0.20729904472179467</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>32000</v>
       </c>
@@ -7704,7 +7246,7 @@
       <c r="G23" s="8">
         <v>0.79</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7712,50 +7254,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J23">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K23" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L23" s="26">
+      <c r="J23" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>7</v>
+      </c>
+      <c r="L23" s="8">
         <v>0.53</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="8">
         <v>0.59</v>
       </c>
-      <c r="O23" s="26">
-        <v>3</v>
-      </c>
-      <c r="P23" s="26">
+      <c r="O23" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="P23" s="7">
         <v>95</v>
       </c>
-      <c r="R23" s="27">
+      <c r="Q23" s="18">
         <f t="shared" si="2"/>
-        <v>0.60125647595354859</v>
-      </c>
-      <c r="S23" s="28">
+        <v>0.23579230138162113</v>
+      </c>
+      <c r="R23" s="7">
         <v>95</v>
       </c>
-      <c r="T23" s="27">
+      <c r="S23" s="18">
         <f t="shared" si="3"/>
-        <v>0.57717456056778016</v>
-      </c>
-      <c r="U23" s="28">
+        <v>0.22489810156424975</v>
+      </c>
+      <c r="T23" s="7">
         <v>95</v>
       </c>
-      <c r="V23" s="27">
+      <c r="U23" s="18">
         <f t="shared" si="4"/>
-        <v>0.55554165352632756</v>
+        <v>0.21511178647406873</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>32000</v>
       </c>
@@ -7774,7 +7313,7 @@
       <c r="G24" s="8">
         <v>0.79</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7782,50 +7321,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J24">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K24" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L24" s="26">
+      <c r="J24" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>7</v>
+      </c>
+      <c r="L24" s="8">
         <v>0.53</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="8">
         <v>0.59</v>
       </c>
-      <c r="O24" s="26">
-        <v>3</v>
-      </c>
-      <c r="P24" s="26">
+      <c r="O24" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="P24" s="7">
         <v>100</v>
       </c>
-      <c r="R24" s="27">
+      <c r="Q24" s="18">
         <f t="shared" si="2"/>
-        <v>0.61732953215807984</v>
-      </c>
-      <c r="S24" s="28">
+        <v>0.24487367964687257</v>
+      </c>
+      <c r="R24" s="7">
         <v>100</v>
       </c>
-      <c r="T24" s="27">
+      <c r="S24" s="18">
         <f t="shared" si="3"/>
-        <v>0.59198014754148143</v>
-      </c>
-      <c r="U24" s="28">
+        <v>0.23340610089174479</v>
+      </c>
+      <c r="T24" s="7">
         <v>100</v>
       </c>
-      <c r="V24" s="27">
+      <c r="U24" s="18">
         <f t="shared" si="4"/>
-        <v>0.56920866644521562</v>
+        <v>0.22310471658629111</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>32000</v>
       </c>
@@ -7844,7 +7380,7 @@
       <c r="G25" s="8">
         <v>0.79</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7852,50 +7388,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J25">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K25" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L25" s="26">
+      <c r="J25" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7</v>
+      </c>
+      <c r="L25" s="8">
         <v>0.53</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="8">
         <v>0.59</v>
       </c>
-      <c r="O25" s="26">
-        <v>3</v>
-      </c>
-      <c r="P25" s="26">
+      <c r="O25" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="P25" s="7">
         <v>105</v>
       </c>
-      <c r="R25" s="27">
+      <c r="Q25" s="18">
         <f t="shared" si="2"/>
-        <v>0.63412509973762299</v>
-      </c>
-      <c r="S25" s="28">
+        <v>0.25410950507779395</v>
+      </c>
+      <c r="R25" s="7">
         <v>105</v>
       </c>
-      <c r="T25" s="27">
+      <c r="S25" s="18">
         <f t="shared" si="3"/>
-        <v>0.60750824589019492</v>
-      </c>
-      <c r="U25" s="28">
+        <v>0.24206854738490979</v>
+      </c>
+      <c r="T25" s="7">
         <v>105</v>
       </c>
-      <c r="V25" s="27">
+      <c r="U25" s="18">
         <f t="shared" si="4"/>
-        <v>0.58359819073911567</v>
+        <v>0.23125209386418338</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>32000</v>
       </c>
@@ -7914,7 +7447,7 @@
       <c r="G26" s="8">
         <v>0.79</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7922,50 +7455,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J26">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K26" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L26" s="26">
+      <c r="J26" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>7</v>
+      </c>
+      <c r="L26" s="8">
         <v>0.53</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="8">
         <v>0.59</v>
       </c>
-      <c r="O26" s="26">
-        <v>3</v>
-      </c>
-      <c r="P26" s="26">
+      <c r="O26" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="P26" s="7">
         <v>110</v>
       </c>
-      <c r="R26" s="27">
+      <c r="Q26" s="18">
         <f t="shared" si="2"/>
-        <v>0.65154465441376774</v>
-      </c>
-      <c r="S26" s="28">
+        <v>0.26347871669724848</v>
+      </c>
+      <c r="R26" s="7">
         <v>110</v>
       </c>
-      <c r="T26" s="27">
+      <c r="S26" s="18">
         <f t="shared" si="3"/>
-        <v>0.62366033133550969</v>
-      </c>
-      <c r="U26" s="28">
+        <v>0.25086438006660794</v>
+      </c>
+      <c r="T26" s="7">
         <v>110</v>
       </c>
-      <c r="V26" s="27">
+      <c r="U26" s="18">
         <f t="shared" si="4"/>
-        <v>0.59861170212961712</v>
+        <v>0.23953285733060886</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>32000</v>
       </c>
@@ -7984,7 +7514,7 @@
       <c r="G27" s="8">
         <v>0.79</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -7992,50 +7522,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J27">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K27" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L27" s="26">
+      <c r="J27" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>7</v>
+      </c>
+      <c r="L27" s="8">
         <v>0.53</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="8">
         <v>0.59</v>
       </c>
-      <c r="O27" s="26">
-        <v>3</v>
-      </c>
-      <c r="P27" s="26">
+      <c r="O27" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="P27" s="7">
         <v>115</v>
       </c>
-      <c r="R27" s="27">
+      <c r="Q27" s="18">
         <f t="shared" si="2"/>
-        <v>0.66950680656521799</v>
-      </c>
-      <c r="S27" s="28">
+        <v>0.27296391630673184</v>
+      </c>
+      <c r="R27" s="7">
         <v>115</v>
       </c>
-      <c r="T27" s="27">
+      <c r="S27" s="18">
         <f t="shared" si="3"/>
-        <v>0.64035501425613006</v>
-      </c>
-      <c r="U27" s="28">
+        <v>0.25977620073833491</v>
+      </c>
+      <c r="T27" s="7">
         <v>115</v>
       </c>
-      <c r="V27" s="27">
+      <c r="U27" s="18">
         <f t="shared" si="4"/>
-        <v>0.61416781099542417</v>
+        <v>0.2479296087870631</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>32000</v>
       </c>
@@ -8054,7 +7581,7 @@
       <c r="G28" s="8">
         <v>0.79</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8062,50 +7589,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J28">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K28" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L28" s="26">
+      <c r="J28" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>7</v>
+      </c>
+      <c r="L28" s="8">
         <v>0.53</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="8">
         <v>0.59</v>
       </c>
-      <c r="O28" s="26">
-        <v>3</v>
-      </c>
-      <c r="P28" s="26">
+      <c r="O28" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="P28" s="7">
         <v>120</v>
       </c>
-      <c r="R28" s="27">
+      <c r="Q28" s="18">
         <f t="shared" si="2"/>
-        <v>0.6879437315075605</v>
-      </c>
-      <c r="S28" s="28">
+        <v>0.28255060540749039</v>
+      </c>
+      <c r="R28" s="7">
         <v>120</v>
       </c>
-      <c r="T28" s="27">
+      <c r="S28" s="18">
         <f t="shared" si="3"/>
-        <v>0.65752446996764269</v>
-      </c>
-      <c r="U28" s="28">
+        <v>0.26878951090133701</v>
+      </c>
+      <c r="T28" s="7">
         <v>120</v>
       </c>
-      <c r="V28" s="27">
+      <c r="U28" s="18">
         <f t="shared" si="4"/>
-        <v>0.63019869265212358</v>
+        <v>0.2564278497347926</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>32000</v>
       </c>
@@ -8124,7 +7648,7 @@
       <c r="G29" s="8">
         <v>0.79</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8132,50 +7656,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J29">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K29" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L29" s="26">
+      <c r="J29" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>7</v>
+      </c>
+      <c r="L29" s="8">
         <v>0.53</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="8">
         <v>0.59</v>
       </c>
-      <c r="O29" s="26">
-        <v>3</v>
-      </c>
-      <c r="P29" s="26">
+      <c r="O29" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="P29" s="7">
         <v>125</v>
       </c>
-      <c r="R29" s="27">
+      <c r="Q29" s="18">
         <f t="shared" si="2"/>
-        <v>0.70679845650588846</v>
-      </c>
-      <c r="S29" s="28">
+        <v>0.29222660526057109</v>
+      </c>
+      <c r="R29" s="7">
         <v>125</v>
       </c>
-      <c r="T29" s="27">
+      <c r="S29" s="18">
         <f t="shared" si="3"/>
-        <v>0.67511172573514067</v>
-      </c>
-      <c r="U29" s="28">
+        <v>0.27789213181666134</v>
+      </c>
+      <c r="T29" s="7">
         <v>125</v>
       </c>
-      <c r="V29" s="27">
+      <c r="U29" s="18">
         <f t="shared" si="4"/>
-        <v>0.64664737436480813</v>
+        <v>0.26501540143484426</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>32000</v>
       </c>
@@ -8194,7 +7715,7 @@
       <c r="G30" s="8">
         <v>0.79</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8202,50 +7723,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J30">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K30" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L30" s="26">
+      <c r="J30" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>7</v>
+      </c>
+      <c r="L30" s="8">
         <v>0.53</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="8">
         <v>0.59</v>
       </c>
-      <c r="O30" s="26">
-        <v>3</v>
-      </c>
-      <c r="P30" s="26">
+      <c r="O30" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="P30" s="7">
         <v>130</v>
       </c>
-      <c r="R30" s="27">
+      <c r="Q30" s="18">
         <f t="shared" si="2"/>
-        <v>0.72602277386143388</v>
-      </c>
-      <c r="S30" s="28">
+        <v>0.30198161077916763</v>
+      </c>
+      <c r="R30" s="7">
         <v>130</v>
       </c>
-      <c r="T30" s="27">
+      <c r="S30" s="18">
         <f t="shared" si="3"/>
-        <v>0.69306857385985632</v>
-      </c>
-      <c r="U30" s="28">
+        <v>0.28707375839750149</v>
+      </c>
+      <c r="T30" s="7">
         <v>130</v>
       </c>
-      <c r="V30" s="27">
+      <c r="U30" s="18">
         <f t="shared" si="4"/>
-        <v>0.66346564843471045</v>
+        <v>0.27368195880041168</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>32000</v>
       </c>
@@ -8264,7 +7782,7 @@
       <c r="G31" s="8">
         <v>0.79</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8272,50 +7790,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J31">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K31" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L31" s="26">
+      <c r="J31" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>7</v>
+      </c>
+      <c r="L31" s="8">
         <v>0.53</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="8">
         <v>0.59</v>
       </c>
-      <c r="O31" s="26">
-        <v>3</v>
-      </c>
-      <c r="P31" s="26">
+      <c r="O31" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="P31" s="7">
         <v>135</v>
       </c>
-      <c r="R31" s="27">
+      <c r="Q31" s="18">
         <f t="shared" si="2"/>
-        <v>0.74557561775672854</v>
-      </c>
-      <c r="S31" s="28">
+        <v>0.31180684355600041</v>
+      </c>
+      <c r="R31" s="7">
         <v>135</v>
       </c>
-      <c r="T31" s="27">
+      <c r="S31" s="18">
         <f t="shared" si="3"/>
-        <v>0.71135394852432099</v>
-      </c>
-      <c r="U31" s="28">
+        <v>0.29632561223657794</v>
+      </c>
+      <c r="T31" s="7">
         <v>135</v>
       </c>
-      <c r="V31" s="27">
+      <c r="U31" s="18">
         <f t="shared" si="4"/>
-        <v>0.68061244904436191</v>
+        <v>0.28241874342421536</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>32000</v>
       </c>
@@ -8334,7 +7849,7 @@
       <c r="G32" s="8">
         <v>0.79</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8342,50 +7857,47 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J32">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K32" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L32" s="26">
+      <c r="J32" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>7</v>
+      </c>
+      <c r="L32" s="8">
         <v>0.53</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="8">
         <v>0.59</v>
       </c>
-      <c r="O32" s="26">
-        <v>3</v>
-      </c>
-      <c r="P32" s="26">
+      <c r="O32" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="P32" s="7">
         <v>140</v>
       </c>
-      <c r="R32" s="27">
+      <c r="Q32" s="18">
         <f t="shared" si="2"/>
-        <v>0.7654217889196564</v>
-      </c>
-      <c r="S32" s="28">
+        <v>0.32169477924197265</v>
+      </c>
+      <c r="R32" s="7">
         <v>140</v>
       </c>
-      <c r="T32" s="27">
+      <c r="S32" s="18">
         <f t="shared" si="3"/>
-        <v>0.72993265045641886</v>
-      </c>
-      <c r="U32" s="28">
+        <v>0.30564016898479379</v>
+      </c>
+      <c r="T32" s="7">
         <v>140</v>
       </c>
-      <c r="V32" s="27">
+      <c r="U32" s="18">
         <f t="shared" si="4"/>
-        <v>0.69805257692164646</v>
+        <v>0.2912182309571586</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>32000</v>
       </c>
@@ -8404,7 +7916,7 @@
       <c r="G33" s="8">
         <v>0.79</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8412,57 +7924,54 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J33">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K33" s="26">
-        <v>9.5</v>
-      </c>
-      <c r="L33" s="26">
+      <c r="J33" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>7</v>
+      </c>
+      <c r="L33" s="8">
         <v>0.53</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N33" s="26">
+      <c r="N33" s="8">
         <v>0.59</v>
       </c>
-      <c r="O33" s="26">
-        <v>3</v>
-      </c>
-      <c r="P33" s="26">
+      <c r="O33" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="P33" s="7">
         <v>145</v>
       </c>
-      <c r="R33" s="27">
+      <c r="Q33" s="18">
         <f t="shared" si="2"/>
-        <v>0.78553094315011718</v>
-      </c>
-      <c r="S33" s="28">
+        <v>0.33163893132924244</v>
+      </c>
+      <c r="R33" s="7">
         <v>145</v>
       </c>
-      <c r="T33" s="27">
+      <c r="S33" s="18">
         <f t="shared" si="3"/>
-        <v>0.74877433545604988</v>
-      </c>
-      <c r="U33" s="28">
+        <v>0.31501094213430719</v>
+      </c>
+      <c r="T33" s="7">
         <v>145</v>
       </c>
-      <c r="V33" s="27">
+      <c r="U33" s="18">
         <f t="shared" si="4"/>
-        <v>0.71575568786646415</v>
+        <v>0.30007393489139927</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>32000</v>
       </c>
       <c r="C34" s="15">
         <v>8.2700000000000004E-4</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>224.44399999999999</v>
       </c>
       <c r="E34" s="10">
@@ -8474,7 +7983,7 @@
       <c r="G34" s="10">
         <v>0.79</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="27">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -8482,54 +7991,51 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J34">
-        <v>1.9179999999999999E-2</v>
-      </c>
-      <c r="K34" s="31">
-        <v>9.5</v>
-      </c>
-      <c r="L34" s="31">
+      <c r="J34" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>7</v>
+      </c>
+      <c r="L34" s="10">
         <v>0.53</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="10">
         <v>0.59</v>
       </c>
-      <c r="O34" s="26">
-        <v>3</v>
-      </c>
-      <c r="P34" s="31">
+      <c r="O34" s="10">
         <v>2.5</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="P34" s="9">
         <v>150</v>
       </c>
-      <c r="R34" s="32">
+      <c r="Q34" s="18">
         <f t="shared" si="2"/>
-        <v>0.80587678214135794</v>
-      </c>
-      <c r="S34" s="29">
+        <v>0.34163367817767992</v>
+      </c>
+      <c r="R34" s="9">
         <v>150</v>
       </c>
-      <c r="T34" s="32">
+      <c r="S34" s="18">
         <f t="shared" si="3"/>
-        <v>0.76785270521646054</v>
-      </c>
-      <c r="U34" s="29">
+        <v>0.32443231004498829</v>
+      </c>
+      <c r="T34" s="9">
         <v>150</v>
       </c>
-      <c r="V34" s="32">
+      <c r="U34" s="18">
         <f t="shared" si="4"/>
-        <v>0.73369548357206171</v>
+        <v>0.30898023358680771</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Matching Diagram/Turn Maneuver.xlsx
+++ b/Matching Diagram/Turn Maneuver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F6FBDD-B632-44F8-9DC0-37111B6A121F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC8704B-2A21-436B-8ADC-E245EC602C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="76 seat" sheetId="3" r:id="rId1"/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,9 +288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,94 +515,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.7020989951404526</c:v>
+                  <c:v>0.89878519104922838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3671041078274051</c:v>
+                  <c:v>0.46122230834569333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26257452772624656</c:v>
+                  <c:v>0.3206256642538835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21566127442806024</c:v>
+                  <c:v>0.25427057981500495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19179455185106278</c:v>
+                  <c:v>0.21761211923729895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1794510946346598</c:v>
+                  <c:v>0.19580197059017918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17369236048145364</c:v>
+                  <c:v>0.18247657161768016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17204907824274546</c:v>
+                  <c:v>0.17445414119181907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17314943061370267</c:v>
+                  <c:v>0.16996702313038325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17617032721142559</c:v>
+                  <c:v>0.16795462372404518</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18058798324679634</c:v>
+                  <c:v>0.16774201970323271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18605320886040294</c:v>
+                  <c:v>0.16887926222156446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19232425722649865</c:v>
+                  <c:v>0.17105484823154557</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19922845204097869</c:v>
+                  <c:v>0.17404627555639407</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20663916401416615</c:v>
+                  <c:v>0.17769037593313647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21446142117880346</c:v>
+                  <c:v>0.18186477316454266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22262259791286998</c:v>
+                  <c:v>0.18647588545273083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23106620762146091</c:v>
+                  <c:v>0.19145092695490393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2397476556243881</c:v>
+                  <c:v>0.19673243516359068</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2486312661775012</c:v>
+                  <c:v>0.20227444007281403</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25768815891648789</c:v>
+                  <c:v>0.20803972786821162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26689470445236541</c:v>
+                  <c:v>0.21399785088348694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27623138285510451</c:v>
+                  <c:v>0.22012365669865597</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28568192751634758</c:v>
+                  <c:v>0.22639618496373193</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29523267448507401</c:v>
+                  <c:v>0.23279782898472609</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30487206195657424</c:v>
+                  <c:v>0.23931369078980164</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.31459024098609567</c:v>
+                  <c:v>0.24593107951406074</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3243787696209931</c:v>
+                  <c:v>0.25263911727330507</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33423037031588287</c:v>
+                  <c:v>0.25942842658115683</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.34413873586476568</c:v>
+                  <c:v>0.26629088028275538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,94 +750,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.70152561620269616</c:v>
+                  <c:v>0.89836270130561846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36595734995189233</c:v>
+                  <c:v>0.46037732885847343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26085439091297741</c:v>
+                  <c:v>0.31935819502305357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21336775867703467</c:v>
+                  <c:v>0.2525806208405651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18892765716228083</c:v>
+                  <c:v>0.21549967051924909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17601082100812146</c:v>
+                  <c:v>0.19326703212851937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16967870791715892</c:v>
+                  <c:v>0.17951914341241038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16746204674069437</c:v>
+                  <c:v>0.17107422324293931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16798902017389516</c:v>
+                  <c:v>0.16616461543789354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1704365378338617</c:v>
+                  <c:v>0.16372972628794549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17428081493147607</c:v>
+                  <c:v>0.16309463252352305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17917266160732628</c:v>
+                  <c:v>0.16380938529824479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18487033103566558</c:v>
+                  <c:v>0.16556248156461595</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19120114691238926</c:v>
+                  <c:v>0.1681314191458545</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19803847994782034</c:v>
+                  <c:v>0.17135302977898692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20528735817470123</c:v>
+                  <c:v>0.17510493726678317</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21287515597101136</c:v>
+                  <c:v>0.17929355981136133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22074538674184591</c:v>
+                  <c:v>0.18384611156992448</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22885345580701671</c:v>
+                  <c:v>0.18870513003500122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23716368742237343</c:v>
+                  <c:v>0.19382464520061463</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2456472012236037</c:v>
+                  <c:v>0.19916744325240227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25428036782172486</c:v>
+                  <c:v>0.20470307652406761</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26304366728670758</c:v>
+                  <c:v>0.21040639259562666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27192083301019421</c:v>
+                  <c:v>0.21625643111709264</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28089820104116425</c:v>
+                  <c:v>0.22223558539447683</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28996420957490809</c:v>
+                  <c:v>0.22832895745594245</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2991090096666732</c:v>
+                  <c:v>0.23452385643659152</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.30832415936381424</c:v>
+                  <c:v>0.24080940445222587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31760238112094763</c:v>
+                  <c:v>0.24717622401646772</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.32693736773207405</c:v>
+                  <c:v>0.25361618797445629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,94 +985,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.70101054698742349</c:v>
+                  <c:v>0.89798317662068072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36492721152134699</c:v>
+                  <c:v>0.4596182794885979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25930918326715935</c:v>
+                  <c:v>0.3182196209682403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21130748181594394</c:v>
+                  <c:v>0.25106252210081403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18635231108591743</c:v>
+                  <c:v>0.21360204709456027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17292040571648537</c:v>
+                  <c:v>0.19098988401889277</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1660732234102501</c:v>
+                  <c:v>0.17686247061784599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16334149301851289</c:v>
+                  <c:v>0.16803802576343718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16335339723644099</c:v>
+                  <c:v>0.16274889327345365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16528584568113486</c:v>
+                  <c:v>0.15993447943856781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16861505356347653</c:v>
+                  <c:v>0.15891986098920763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17299183102405405</c:v>
+                  <c:v>0.15925508907899161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17817443123712068</c:v>
+                  <c:v>0.160628660660425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18399017789857167</c:v>
+                  <c:v>0.16281807355672578</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19031244171873005</c:v>
+                  <c:v>0.16566015950492041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19704625073033827</c:v>
+                  <c:v>0.16903254230777889</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20411897931137574</c:v>
+                  <c:v>0.17284164016741932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21147414086693755</c:v>
+                  <c:v>0.17701466724104467</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2190671407168357</c:v>
+                  <c:v>0.18149416102118371</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22686230311691974</c:v>
+                  <c:v>0.18623415150185929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23483074770287732</c:v>
+                  <c:v>0.19119742486870916</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24294884508572578</c:v>
+                  <c:v>0.19635353345543671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25119707533543584</c:v>
+                  <c:v>0.20167732484205803</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25955917184364979</c:v>
+                  <c:v>0.20714783867858627</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26802147065934712</c:v>
+                  <c:v>0.21274746827103266</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.27657240997781829</c:v>
+                  <c:v>0.21846131564756049</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28520214085431067</c:v>
+                  <c:v>0.22427668994327185</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29390222133617905</c:v>
+                  <c:v>0.23018271327396844</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30266537387803971</c:v>
+                  <c:v>0.23617000815327249</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.31148529127389346</c:v>
+                  <c:v>0.2422304474263233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,94 +1481,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.62694726452788008</c:v>
+                  <c:v>0.82303224659175533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32952824252111884</c:v>
+                  <c:v>0.42334583611695681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23752395085538908</c:v>
+                  <c:v>0.29537468276805912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19687334177491711</c:v>
+                  <c:v>0.23533234370063671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17676420572854828</c:v>
+                  <c:v>0.20246153034580433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16692580619923106</c:v>
+                  <c:v>0.18317647984726698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16295639896537184</c:v>
+                  <c:v>0.17165472240946972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16265511191617391</c:v>
+                  <c:v>0.16498502313463492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16479923832341684</c:v>
+                  <c:v>0.16155002930177514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16865515415016835</c:v>
+                  <c:v>0.1603793292782979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17375600773656247</c:v>
+                  <c:v>0.160855388388917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17979056464268858</c:v>
+                  <c:v>0.16256651685010837</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18654335487168539</c:v>
+                  <c:v>0.1652276986578938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19386047128293779</c:v>
+                  <c:v>0.16863535095228888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20162904863999467</c:v>
+                  <c:v>0.17264017963597161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20976443801551767</c:v>
+                  <c:v>0.17713021413595059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21820190787683633</c:v>
+                  <c:v>0.18201982989640889</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22689111147631796</c:v>
+                  <c:v>0.18724243004059987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23579230138162113</c:v>
+                  <c:v>0.19274543808688158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24487367964687257</c:v>
+                  <c:v>0.19848679284994039</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25410950507779395</c:v>
+                  <c:v>0.20443244479880812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26347871669724848</c:v>
+                  <c:v>0.21055453522632908</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27296391630673184</c:v>
+                  <c:v>0.21683005041789627</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28255060540749039</c:v>
+                  <c:v>0.22323981227800388</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29222660526057109</c:v>
+                  <c:v>0.22976771120642717</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30198161077916763</c:v>
+                  <c:v>0.23640011600297578</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.31180684355600041</c:v>
+                  <c:v>0.24312541490452469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.32169477924197265</c:v>
+                  <c:v>0.24993365497125244</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33163893132924244</c:v>
+                  <c:v>0.25681625608262332</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.34163367817767992</c:v>
+                  <c:v>0.26376578213417295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,94 +1716,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.62637388559012364</c:v>
+                  <c:v>0.82260975684814541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32838148464560607</c:v>
+                  <c:v>0.42250085662973691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23580381404211989</c:v>
+                  <c:v>0.29410721353722918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19457982602389157</c:v>
+                  <c:v>0.23364238472619683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17389731103976636</c:v>
+                  <c:v>0.20034908162775447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16348553257269272</c:v>
+                  <c:v>0.18064154138560717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15894274640107714</c:v>
+                  <c:v>0.16869729420419993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15806808041412279</c:v>
+                  <c:v>0.16160510518575516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15963882788360934</c:v>
+                  <c:v>0.1577476216092854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16292136477260447</c:v>
+                  <c:v>0.15615443184219818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1674488394212422</c:v>
+                  <c:v>0.1562080012092073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1729100173896119</c:v>
+                  <c:v>0.1574966399267887</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17908942868085231</c:v>
+                  <c:v>0.15973533199096418</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18583316615434836</c:v>
+                  <c:v>0.16272049454174928</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19302836457364886</c:v>
+                  <c:v>0.16630283348182207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20059037501141547</c:v>
+                  <c:v>0.17037037823819109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20845446593497771</c:v>
+                  <c:v>0.17483750425503938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21657029059670296</c:v>
+                  <c:v>0.17963761465562042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22489810156424975</c:v>
+                  <c:v>0.18471813295829212</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23340610089174479</c:v>
+                  <c:v>0.19003699797774098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.24206854738490979</c:v>
+                  <c:v>0.19556016018299877</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25086438006660794</c:v>
+                  <c:v>0.20125976086690972</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25977620073833491</c:v>
+                  <c:v>0.20711278631486696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26878951090133701</c:v>
+                  <c:v>0.21310005843136459</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27789213181666134</c:v>
+                  <c:v>0.2192054676161779</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28707375839750149</c:v>
+                  <c:v>0.22541538266911654</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.29632561223657794</c:v>
+                  <c:v>0.23171819182705547</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.30564016898479379</c:v>
+                  <c:v>0.23810394215017328</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31501094213430719</c:v>
+                  <c:v>0.24456405351793417</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.32443231004498829</c:v>
+                  <c:v>0.25109108982587386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,94 +1951,94 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.62585881637485097</c:v>
+                  <c:v>0.82223023216320767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32735134621506068</c:v>
+                  <c:v>0.42174180725986138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23425860639630186</c:v>
+                  <c:v>0.29296863948241592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19251954916280081</c:v>
+                  <c:v>0.23212428598644574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17132196496340293</c:v>
+                  <c:v>0.19845145820306564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1603951172810566</c:v>
+                  <c:v>0.17836439327598058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15533726189416833</c:v>
+                  <c:v>0.16604062140963555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15394752669194134</c:v>
+                  <c:v>0.15856890770625304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15500320494615516</c:v>
+                  <c:v>0.15433189944484552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15777067261987762</c:v>
+                  <c:v>0.15235918499282053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16178307805324266</c:v>
+                  <c:v>0.15203322967489186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16672918680633969</c:v>
+                  <c:v>0.15294234370753551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17239352888230741</c:v>
+                  <c:v>0.15480151108677323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17862219714053076</c:v>
+                  <c:v>0.15740714895262053</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18530232634455857</c:v>
+                  <c:v>0.16060996320775556</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19234926756705251</c:v>
+                  <c:v>0.16429798327918682</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.19969828927534206</c:v>
+                  <c:v>0.16838558461109737</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20729904472179467</c:v>
+                  <c:v>0.17280617032674062</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21511178647406873</c:v>
+                  <c:v>0.17750716394447458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22310471658629111</c:v>
+                  <c:v>0.18244650427898565</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23125209386418338</c:v>
+                  <c:v>0.18759014179930567</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23953285733060886</c:v>
+                  <c:v>0.19291021779827885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2479296087870631</c:v>
+                  <c:v>0.19838371856129833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2564278497347926</c:v>
+                  <c:v>0.20399146599285822</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26501540143484426</c:v>
+                  <c:v>0.20971735049273374</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.27368195880041168</c:v>
+                  <c:v>0.21554774086073464</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28241874342421536</c:v>
+                  <c:v>0.2214710253337358</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2912182309571586</c:v>
+                  <c:v>0.22747725097191582</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30007393489139927</c:v>
+                  <c:v>0.23355783765473895</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30898023358680771</c:v>
+                  <c:v>0.23970534927774084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6857B58F-422C-4964-B558-66FAEC3F49F0}">
   <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3734,2168 @@
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="29"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C5" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>287</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H5" s="25">
+        <f>G5*SQRT(F5*E5*D5)*3.28084</f>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I5" s="8">
+        <f>0.5*C5*H5^2</f>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0.53</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N5" s="27">
+        <v>0.59</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="18">
+        <f>((I5*J5)/(P5))+(((O5^2)*P5)/(K5*L5*PI()*I5))</f>
+        <v>0.89878519104922838</v>
+      </c>
+      <c r="R5" s="7">
+        <v>5</v>
+      </c>
+      <c r="S5" s="18">
+        <f>((I5*J5)/(R5))+(((O5^2)*R5)/(K5*M5*PI()*I5))</f>
+        <v>0.89836270130561846</v>
+      </c>
+      <c r="T5" s="7">
+        <v>5</v>
+      </c>
+      <c r="U5" s="18">
+        <f>((I5*J5)/(T5))+(((O5^2)*T5)/(K5*N5*PI()*I5))</f>
+        <v>0.89798317662068072</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>287</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" ref="H6:H34" si="0">G6*SQRT(F6*E6*D6)*3.28084</f>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" ref="I6:I34" si="1">0.5*C6*H6^2</f>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q34" si="2">((I6*J6)/(P6))+(((O6^2)*P6)/(K6*L6*PI()*I6))</f>
+        <v>0.46122230834569333</v>
+      </c>
+      <c r="R6" s="7">
+        <v>10</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S34" si="3">((I6*J6)/(R6))+(((O6^2)*R6)/(K6*M6*PI()*I6))</f>
+        <v>0.46037732885847343</v>
+      </c>
+      <c r="T6" s="7">
+        <v>10</v>
+      </c>
+      <c r="U6" s="18">
+        <f t="shared" ref="U6:U34" si="4">((I6*J6)/(T6))+(((O6^2)*T6)/(K6*N6*PI()*I6))</f>
+        <v>0.4596182794885979</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C7" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>287</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="2"/>
+        <v>0.3206256642538835</v>
+      </c>
+      <c r="R7" s="7">
+        <v>15</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31935819502305357</v>
+      </c>
+      <c r="T7" s="7">
+        <v>15</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" si="4"/>
+        <v>0.3182196209682403</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>287</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P8" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25427057981500495</v>
+      </c>
+      <c r="R8" s="7">
+        <v>20</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="3"/>
+        <v>0.2525806208405651</v>
+      </c>
+      <c r="T8" s="7">
+        <v>20</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="4"/>
+        <v>0.25106252210081403</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E9" s="8">
+        <v>287</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P9" s="7">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.21761211923729895</v>
+      </c>
+      <c r="R9" s="7">
+        <v>25</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.21549967051924909</v>
+      </c>
+      <c r="T9" s="7">
+        <v>25</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.21360204709456027</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E10" s="8">
+        <v>287</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.19580197059017918</v>
+      </c>
+      <c r="R10" s="7">
+        <v>30</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="3"/>
+        <v>0.19326703212851937</v>
+      </c>
+      <c r="T10" s="7">
+        <v>30</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="4"/>
+        <v>0.19098988401889277</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>287</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.18247657161768016</v>
+      </c>
+      <c r="R11" s="7">
+        <v>35</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17951914341241038</v>
+      </c>
+      <c r="T11" s="7">
+        <v>35</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="4"/>
+        <v>0.17686247061784599</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C12" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <v>287</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P12" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.17445414119181907</v>
+      </c>
+      <c r="R12" s="7">
+        <v>40</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17107422324293931</v>
+      </c>
+      <c r="T12" s="7">
+        <v>40</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="4"/>
+        <v>0.16803802576343718</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C13" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>287</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O13" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16996702313038325</v>
+      </c>
+      <c r="R13" s="7">
+        <v>45</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16616461543789354</v>
+      </c>
+      <c r="T13" s="7">
+        <v>45</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="4"/>
+        <v>0.16274889327345365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C14" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E14" s="8">
+        <v>287</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16795462372404518</v>
+      </c>
+      <c r="R14" s="7">
+        <v>50</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16372972628794549</v>
+      </c>
+      <c r="T14" s="7">
+        <v>50</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="4"/>
+        <v>0.15993447943856781</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C15" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E15" s="8">
+        <v>287</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O15" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P15" s="7">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16774201970323271</v>
+      </c>
+      <c r="R15" s="7">
+        <v>55</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16309463252352305</v>
+      </c>
+      <c r="T15" s="7">
+        <v>55</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="4"/>
+        <v>0.15891986098920763</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C16" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>287</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O16" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P16" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16887926222156446</v>
+      </c>
+      <c r="R16" s="7">
+        <v>60</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16380938529824479</v>
+      </c>
+      <c r="T16" s="7">
+        <v>60</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="4"/>
+        <v>0.15925508907899161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C17" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D17" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>287</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O17" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="7">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.17105484823154557</v>
+      </c>
+      <c r="R17" s="7">
+        <v>65</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16556248156461595</v>
+      </c>
+      <c r="T17" s="7">
+        <v>65</v>
+      </c>
+      <c r="U17" s="18">
+        <f t="shared" si="4"/>
+        <v>0.160628660660425</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C18" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>287</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O18" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P18" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="2"/>
+        <v>0.17404627555639407</v>
+      </c>
+      <c r="R18" s="7">
+        <v>70</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="3"/>
+        <v>0.1681314191458545</v>
+      </c>
+      <c r="T18" s="7">
+        <v>70</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="4"/>
+        <v>0.16281807355672578</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C19" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>287</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O19" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P19" s="7">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="2"/>
+        <v>0.17769037593313647</v>
+      </c>
+      <c r="R19" s="7">
+        <v>75</v>
+      </c>
+      <c r="S19" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17135302977898692</v>
+      </c>
+      <c r="T19" s="7">
+        <v>75</v>
+      </c>
+      <c r="U19" s="18">
+        <f t="shared" si="4"/>
+        <v>0.16566015950492041</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C20" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E20" s="8">
+        <v>287</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O20" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P20" s="7">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="2"/>
+        <v>0.18186477316454266</v>
+      </c>
+      <c r="R20" s="7">
+        <v>80</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17510493726678317</v>
+      </c>
+      <c r="T20" s="7">
+        <v>80</v>
+      </c>
+      <c r="U20" s="18">
+        <f t="shared" si="4"/>
+        <v>0.16903254230777889</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C21" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D21" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E21" s="8">
+        <v>287</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P21" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="2"/>
+        <v>0.18647588545273083</v>
+      </c>
+      <c r="R21" s="7">
+        <v>85</v>
+      </c>
+      <c r="S21" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17929355981136133</v>
+      </c>
+      <c r="T21" s="7">
+        <v>85</v>
+      </c>
+      <c r="U21" s="18">
+        <f t="shared" si="4"/>
+        <v>0.17284164016741932</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C22" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E22" s="8">
+        <v>287</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O22" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P22" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="2"/>
+        <v>0.19145092695490393</v>
+      </c>
+      <c r="R22" s="7">
+        <v>90</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18384611156992448</v>
+      </c>
+      <c r="T22" s="7">
+        <v>90</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" si="4"/>
+        <v>0.17701466724104467</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C23" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E23" s="8">
+        <v>287</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O23" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P23" s="7">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.19673243516359068</v>
+      </c>
+      <c r="R23" s="7">
+        <v>95</v>
+      </c>
+      <c r="S23" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18870513003500122</v>
+      </c>
+      <c r="T23" s="7">
+        <v>95</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="4"/>
+        <v>0.18149416102118371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C24" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D24" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E24" s="8">
+        <v>287</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O24" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P24" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" si="2"/>
+        <v>0.20227444007281403</v>
+      </c>
+      <c r="R24" s="7">
+        <v>100</v>
+      </c>
+      <c r="S24" s="18">
+        <f t="shared" si="3"/>
+        <v>0.19382464520061463</v>
+      </c>
+      <c r="T24" s="7">
+        <v>100</v>
+      </c>
+      <c r="U24" s="18">
+        <f t="shared" si="4"/>
+        <v>0.18623415150185929</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C25" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D25" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>287</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O25" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P25" s="7">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="18">
+        <f t="shared" si="2"/>
+        <v>0.20803972786821162</v>
+      </c>
+      <c r="R25" s="7">
+        <v>105</v>
+      </c>
+      <c r="S25" s="18">
+        <f t="shared" si="3"/>
+        <v>0.19916744325240227</v>
+      </c>
+      <c r="T25" s="7">
+        <v>105</v>
+      </c>
+      <c r="U25" s="18">
+        <f t="shared" si="4"/>
+        <v>0.19119742486870916</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C26" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D26" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E26" s="8">
+        <v>287</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O26" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P26" s="7">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="18">
+        <f t="shared" si="2"/>
+        <v>0.21399785088348694</v>
+      </c>
+      <c r="R26" s="7">
+        <v>110</v>
+      </c>
+      <c r="S26" s="18">
+        <f t="shared" si="3"/>
+        <v>0.20470307652406761</v>
+      </c>
+      <c r="T26" s="7">
+        <v>110</v>
+      </c>
+      <c r="U26" s="18">
+        <f t="shared" si="4"/>
+        <v>0.19635353345543671</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C27" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E27" s="8">
+        <v>287</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O27" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P27" s="7">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="2"/>
+        <v>0.22012365669865597</v>
+      </c>
+      <c r="R27" s="7">
+        <v>115</v>
+      </c>
+      <c r="S27" s="18">
+        <f t="shared" si="3"/>
+        <v>0.21040639259562666</v>
+      </c>
+      <c r="T27" s="7">
+        <v>115</v>
+      </c>
+      <c r="U27" s="18">
+        <f t="shared" si="4"/>
+        <v>0.20167732484205803</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C28" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D28" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>287</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J28" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O28" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P28" s="7">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="2"/>
+        <v>0.22639618496373193</v>
+      </c>
+      <c r="R28" s="7">
+        <v>120</v>
+      </c>
+      <c r="S28" s="18">
+        <f t="shared" si="3"/>
+        <v>0.21625643111709264</v>
+      </c>
+      <c r="T28" s="7">
+        <v>120</v>
+      </c>
+      <c r="U28" s="18">
+        <f t="shared" si="4"/>
+        <v>0.20714783867858627</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C29" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D29" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E29" s="8">
+        <v>287</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O29" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P29" s="7">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="2"/>
+        <v>0.23279782898472609</v>
+      </c>
+      <c r="R29" s="7">
+        <v>125</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" si="3"/>
+        <v>0.22223558539447683</v>
+      </c>
+      <c r="T29" s="7">
+        <v>125</v>
+      </c>
+      <c r="U29" s="18">
+        <f t="shared" si="4"/>
+        <v>0.21274746827103266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C30" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D30" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E30" s="8">
+        <v>287</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O30" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P30" s="7">
+        <v>130</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="2"/>
+        <v>0.23931369078980164</v>
+      </c>
+      <c r="R30" s="7">
+        <v>130</v>
+      </c>
+      <c r="S30" s="18">
+        <f t="shared" si="3"/>
+        <v>0.22832895745594245</v>
+      </c>
+      <c r="T30" s="7">
+        <v>130</v>
+      </c>
+      <c r="U30" s="18">
+        <f t="shared" si="4"/>
+        <v>0.21846131564756049</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C31" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D31" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E31" s="8">
+        <v>287</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O31" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P31" s="7">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="18">
+        <f t="shared" si="2"/>
+        <v>0.24593107951406074</v>
+      </c>
+      <c r="R31" s="7">
+        <v>135</v>
+      </c>
+      <c r="S31" s="18">
+        <f t="shared" si="3"/>
+        <v>0.23452385643659152</v>
+      </c>
+      <c r="T31" s="7">
+        <v>135</v>
+      </c>
+      <c r="U31" s="18">
+        <f t="shared" si="4"/>
+        <v>0.22427668994327185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C32" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D32" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E32" s="8">
+        <v>287</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O32" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P32" s="7">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25263911727330507</v>
+      </c>
+      <c r="R32" s="7">
+        <v>140</v>
+      </c>
+      <c r="S32" s="18">
+        <f t="shared" si="3"/>
+        <v>0.24080940445222587</v>
+      </c>
+      <c r="T32" s="7">
+        <v>140</v>
+      </c>
+      <c r="U32" s="18">
+        <f t="shared" si="4"/>
+        <v>0.23018271327396844</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>32000</v>
+      </c>
+      <c r="C33" s="14">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E33" s="8">
+        <v>287</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="O33" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P33" s="7">
+        <v>145</v>
+      </c>
+      <c r="Q33" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25942842658115683</v>
+      </c>
+      <c r="R33" s="7">
+        <v>145</v>
+      </c>
+      <c r="S33" s="18">
+        <f t="shared" si="3"/>
+        <v>0.24717622401646772</v>
+      </c>
+      <c r="T33" s="7">
+        <v>145</v>
+      </c>
+      <c r="U33" s="18">
+        <f t="shared" si="4"/>
+        <v>0.23617000815327249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <v>32000</v>
+      </c>
+      <c r="C34" s="15">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>224.44399999999999</v>
+      </c>
+      <c r="E34" s="10">
+        <v>287</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="H34" s="26">
+        <f t="shared" si="0"/>
+        <v>778.34315194077169</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="1"/>
+        <v>250.50576870857486</v>
+      </c>
+      <c r="J34" s="21">
+        <v>1.7781999999999999E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="O34" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="P34" s="9">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="18">
+        <f t="shared" si="2"/>
+        <v>0.26629088028275538</v>
+      </c>
+      <c r="R34" s="9">
+        <v>150</v>
+      </c>
+      <c r="S34" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25361618797445629</v>
+      </c>
+      <c r="T34" s="9">
+        <v>150</v>
+      </c>
+      <c r="U34" s="18">
+        <f t="shared" si="4"/>
+        <v>0.2422304474263233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ACC4D3-6A73-4891-805F-ABFB63A24EA5}">
+  <dimension ref="B2:U34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -3773,7 +5931,7 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3831,7 +5989,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="6"/>
@@ -3847,18 +6005,18 @@
         <v>19</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="29" t="s">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29" t="s">
+      <c r="S4" s="29"/>
+      <c r="T4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="30"/>
+      <c r="U4" s="29"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
@@ -3879,7 +6037,7 @@
       <c r="G5" s="8">
         <v>0.79</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <f>G5*SQRT(F5*E5*D5)*3.28084</f>
         <v>778.34315194077169</v>
       </c>
@@ -3888,18 +6046,18 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J5" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K5" s="8">
-        <v>7</v>
-      </c>
-      <c r="L5" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="L5" s="27">
         <v>0.53</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="27">
         <v>0.59</v>
       </c>
       <c r="O5" s="8">
@@ -3910,21 +6068,21 @@
       </c>
       <c r="Q5" s="18">
         <f>((I5*J5)/(P5))+(((O5^2)*P5)/(K5*L5*PI()*I5))</f>
-        <v>0.7020989951404526</v>
+        <v>0.82303224659175533</v>
       </c>
       <c r="R5" s="7">
         <v>5</v>
       </c>
       <c r="S5" s="18">
         <f>((I5*J5)/(R5))+(((O5^2)*R5)/(K5*M5*PI()*I5))</f>
-        <v>0.70152561620269616</v>
+        <v>0.82260975684814541</v>
       </c>
       <c r="T5" s="7">
         <v>5</v>
       </c>
       <c r="U5" s="18">
         <f>((I5*J5)/(T5))+(((O5^2)*T5)/(K5*N5*PI()*I5))</f>
-        <v>0.70101054698742349</v>
+        <v>0.82223023216320767</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -3946,7 +6104,7 @@
       <c r="G6" s="8">
         <v>0.79</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <f t="shared" ref="H6:H34" si="0">G6*SQRT(F6*E6*D6)*3.28084</f>
         <v>778.34315194077169</v>
       </c>
@@ -3955,10 +6113,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J6" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K6" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L6" s="8">
         <v>0.53</v>
@@ -3977,21 +6135,21 @@
       </c>
       <c r="Q6" s="18">
         <f t="shared" ref="Q6:Q34" si="2">((I6*J6)/(P6))+(((O6^2)*P6)/(K6*L6*PI()*I6))</f>
-        <v>0.3671041078274051</v>
+        <v>0.42334583611695681</v>
       </c>
       <c r="R6" s="7">
         <v>10</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" ref="S6:S34" si="3">((I6*J6)/(R6))+(((O6^2)*R6)/(K6*M6*PI()*I6))</f>
-        <v>0.36595734995189233</v>
+        <v>0.42250085662973691</v>
       </c>
       <c r="T6" s="7">
         <v>10</v>
       </c>
       <c r="U6" s="18">
         <f t="shared" ref="U6:U34" si="4">((I6*J6)/(T6))+(((O6^2)*T6)/(K6*N6*PI()*I6))</f>
-        <v>0.36492721152134699</v>
+        <v>0.42174180725986138</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -4013,7 +6171,7 @@
       <c r="G7" s="8">
         <v>0.79</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4022,10 +6180,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J7" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K7" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L7" s="8">
         <v>0.53</v>
@@ -4044,21 +6202,21 @@
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="2"/>
-        <v>0.26257452772624656</v>
+        <v>0.29537468276805912</v>
       </c>
       <c r="R7" s="7">
         <v>15</v>
       </c>
       <c r="S7" s="18">
         <f t="shared" si="3"/>
-        <v>0.26085439091297741</v>
+        <v>0.29410721353722918</v>
       </c>
       <c r="T7" s="7">
         <v>15</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" si="4"/>
-        <v>0.25930918326715935</v>
+        <v>0.29296863948241592</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -4080,7 +6238,7 @@
       <c r="G8" s="8">
         <v>0.79</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4089,10 +6247,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J8" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K8" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L8" s="8">
         <v>0.53</v>
@@ -4111,21 +6269,21 @@
       </c>
       <c r="Q8" s="18">
         <f t="shared" si="2"/>
-        <v>0.21566127442806024</v>
+        <v>0.23533234370063671</v>
       </c>
       <c r="R8" s="7">
         <v>20</v>
       </c>
       <c r="S8" s="18">
         <f t="shared" si="3"/>
-        <v>0.21336775867703467</v>
+        <v>0.23364238472619683</v>
       </c>
       <c r="T8" s="7">
         <v>20</v>
       </c>
       <c r="U8" s="18">
         <f t="shared" si="4"/>
-        <v>0.21130748181594394</v>
+        <v>0.23212428598644574</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -4147,7 +6305,7 @@
       <c r="G9" s="8">
         <v>0.79</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4156,10 +6314,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J9" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K9" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L9" s="8">
         <v>0.53</v>
@@ -4178,21 +6336,21 @@
       </c>
       <c r="Q9" s="18">
         <f t="shared" si="2"/>
-        <v>0.19179455185106278</v>
+        <v>0.20246153034580433</v>
       </c>
       <c r="R9" s="7">
         <v>25</v>
       </c>
       <c r="S9" s="18">
         <f t="shared" si="3"/>
-        <v>0.18892765716228083</v>
+        <v>0.20034908162775447</v>
       </c>
       <c r="T9" s="7">
         <v>25</v>
       </c>
       <c r="U9" s="18">
         <f t="shared" si="4"/>
-        <v>0.18635231108591743</v>
+        <v>0.19845145820306564</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
@@ -4214,7 +6372,7 @@
       <c r="G10" s="8">
         <v>0.79</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4223,10 +6381,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J10" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K10" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L10" s="8">
         <v>0.53</v>
@@ -4245,21 +6403,21 @@
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="2"/>
-        <v>0.1794510946346598</v>
+        <v>0.18317647984726698</v>
       </c>
       <c r="R10" s="7">
         <v>30</v>
       </c>
       <c r="S10" s="18">
         <f t="shared" si="3"/>
-        <v>0.17601082100812146</v>
+        <v>0.18064154138560717</v>
       </c>
       <c r="T10" s="7">
         <v>30</v>
       </c>
       <c r="U10" s="18">
         <f t="shared" si="4"/>
-        <v>0.17292040571648537</v>
+        <v>0.17836439327598058</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -4281,7 +6439,7 @@
       <c r="G11" s="8">
         <v>0.79</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4290,10 +6448,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J11" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K11" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L11" s="8">
         <v>0.53</v>
@@ -4312,21 +6470,21 @@
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="2"/>
-        <v>0.17369236048145364</v>
+        <v>0.17165472240946972</v>
       </c>
       <c r="R11" s="7">
         <v>35</v>
       </c>
       <c r="S11" s="18">
         <f t="shared" si="3"/>
-        <v>0.16967870791715892</v>
+        <v>0.16869729420419993</v>
       </c>
       <c r="T11" s="7">
         <v>35</v>
       </c>
       <c r="U11" s="18">
         <f t="shared" si="4"/>
-        <v>0.1660732234102501</v>
+        <v>0.16604062140963555</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
@@ -4348,7 +6506,7 @@
       <c r="G12" s="8">
         <v>0.79</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4357,10 +6515,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J12" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K12" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L12" s="8">
         <v>0.53</v>
@@ -4379,21 +6537,21 @@
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="2"/>
-        <v>0.17204907824274546</v>
+        <v>0.16498502313463492</v>
       </c>
       <c r="R12" s="7">
         <v>40</v>
       </c>
       <c r="S12" s="18">
         <f t="shared" si="3"/>
-        <v>0.16746204674069437</v>
+        <v>0.16160510518575516</v>
       </c>
       <c r="T12" s="7">
         <v>40</v>
       </c>
       <c r="U12" s="18">
         <f t="shared" si="4"/>
-        <v>0.16334149301851289</v>
+        <v>0.15856890770625304</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -4415,7 +6573,7 @@
       <c r="G13" s="8">
         <v>0.79</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4424,10 +6582,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J13" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K13" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L13" s="8">
         <v>0.53</v>
@@ -4446,21 +6604,21 @@
       </c>
       <c r="Q13" s="18">
         <f t="shared" si="2"/>
-        <v>0.17314943061370267</v>
+        <v>0.16155002930177514</v>
       </c>
       <c r="R13" s="7">
         <v>45</v>
       </c>
       <c r="S13" s="18">
         <f t="shared" si="3"/>
-        <v>0.16798902017389516</v>
+        <v>0.1577476216092854</v>
       </c>
       <c r="T13" s="7">
         <v>45</v>
       </c>
       <c r="U13" s="18">
         <f t="shared" si="4"/>
-        <v>0.16335339723644099</v>
+        <v>0.15433189944484552</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
@@ -4482,7 +6640,7 @@
       <c r="G14" s="8">
         <v>0.79</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4491,10 +6649,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J14" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K14" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L14" s="8">
         <v>0.53</v>
@@ -4513,21 +6671,21 @@
       </c>
       <c r="Q14" s="18">
         <f t="shared" si="2"/>
-        <v>0.17617032721142559</v>
+        <v>0.1603793292782979</v>
       </c>
       <c r="R14" s="7">
         <v>50</v>
       </c>
       <c r="S14" s="18">
         <f t="shared" si="3"/>
-        <v>0.1704365378338617</v>
+        <v>0.15615443184219818</v>
       </c>
       <c r="T14" s="7">
         <v>50</v>
       </c>
       <c r="U14" s="18">
         <f t="shared" si="4"/>
-        <v>0.16528584568113486</v>
+        <v>0.15235918499282053</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -4549,7 +6707,7 @@
       <c r="G15" s="8">
         <v>0.79</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4558,10 +6716,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J15" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K15" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L15" s="8">
         <v>0.53</v>
@@ -4580,21 +6738,21 @@
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="2"/>
-        <v>0.18058798324679634</v>
+        <v>0.160855388388917</v>
       </c>
       <c r="R15" s="7">
         <v>55</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="3"/>
-        <v>0.17428081493147607</v>
+        <v>0.1562080012092073</v>
       </c>
       <c r="T15" s="7">
         <v>55</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="4"/>
-        <v>0.16861505356347653</v>
+        <v>0.15203322967489186</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -4616,7 +6774,7 @@
       <c r="G16" s="8">
         <v>0.79</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4625,10 +6783,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J16" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K16" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L16" s="8">
         <v>0.53</v>
@@ -4647,21 +6805,21 @@
       </c>
       <c r="Q16" s="18">
         <f t="shared" si="2"/>
-        <v>0.18605320886040294</v>
+        <v>0.16256651685010837</v>
       </c>
       <c r="R16" s="7">
         <v>60</v>
       </c>
       <c r="S16" s="18">
         <f t="shared" si="3"/>
-        <v>0.17917266160732628</v>
+        <v>0.1574966399267887</v>
       </c>
       <c r="T16" s="7">
         <v>60</v>
       </c>
       <c r="U16" s="18">
         <f t="shared" si="4"/>
-        <v>0.17299183102405405</v>
+        <v>0.15294234370753551</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
@@ -4683,7 +6841,7 @@
       <c r="G17" s="8">
         <v>0.79</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4692,10 +6850,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J17" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K17" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L17" s="8">
         <v>0.53</v>
@@ -4714,21 +6872,21 @@
       </c>
       <c r="Q17" s="18">
         <f t="shared" si="2"/>
-        <v>0.19232425722649865</v>
+        <v>0.1652276986578938</v>
       </c>
       <c r="R17" s="7">
         <v>65</v>
       </c>
       <c r="S17" s="18">
         <f t="shared" si="3"/>
-        <v>0.18487033103566558</v>
+        <v>0.15973533199096418</v>
       </c>
       <c r="T17" s="7">
         <v>65</v>
       </c>
       <c r="U17" s="18">
         <f t="shared" si="4"/>
-        <v>0.17817443123712068</v>
+        <v>0.15480151108677323</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -4750,7 +6908,7 @@
       <c r="G18" s="8">
         <v>0.79</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4759,10 +6917,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J18" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K18" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L18" s="8">
         <v>0.53</v>
@@ -4781,21 +6939,21 @@
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="2"/>
-        <v>0.19922845204097869</v>
+        <v>0.16863535095228888</v>
       </c>
       <c r="R18" s="7">
         <v>70</v>
       </c>
       <c r="S18" s="18">
         <f t="shared" si="3"/>
-        <v>0.19120114691238926</v>
+        <v>0.16272049454174928</v>
       </c>
       <c r="T18" s="7">
         <v>70</v>
       </c>
       <c r="U18" s="18">
         <f t="shared" si="4"/>
-        <v>0.18399017789857167</v>
+        <v>0.15740714895262053</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
@@ -4817,7 +6975,7 @@
       <c r="G19" s="8">
         <v>0.79</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4826,10 +6984,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J19" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K19" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L19" s="8">
         <v>0.53</v>
@@ -4848,21 +7006,21 @@
       </c>
       <c r="Q19" s="18">
         <f t="shared" si="2"/>
-        <v>0.20663916401416615</v>
+        <v>0.17264017963597161</v>
       </c>
       <c r="R19" s="7">
         <v>75</v>
       </c>
       <c r="S19" s="18">
         <f t="shared" si="3"/>
-        <v>0.19803847994782034</v>
+        <v>0.16630283348182207</v>
       </c>
       <c r="T19" s="7">
         <v>75</v>
       </c>
       <c r="U19" s="18">
         <f t="shared" si="4"/>
-        <v>0.19031244171873005</v>
+        <v>0.16060996320775556</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
@@ -4884,7 +7042,7 @@
       <c r="G20" s="8">
         <v>0.79</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4893,10 +7051,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J20" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K20" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L20" s="8">
         <v>0.53</v>
@@ -4915,21 +7073,21 @@
       </c>
       <c r="Q20" s="18">
         <f t="shared" si="2"/>
-        <v>0.21446142117880346</v>
+        <v>0.17713021413595059</v>
       </c>
       <c r="R20" s="7">
         <v>80</v>
       </c>
       <c r="S20" s="18">
         <f t="shared" si="3"/>
-        <v>0.20528735817470123</v>
+        <v>0.17037037823819109</v>
       </c>
       <c r="T20" s="7">
         <v>80</v>
       </c>
       <c r="U20" s="18">
         <f t="shared" si="4"/>
-        <v>0.19704625073033827</v>
+        <v>0.16429798327918682</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
@@ -4951,7 +7109,7 @@
       <c r="G21" s="8">
         <v>0.79</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -4960,10 +7118,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J21" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K21" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L21" s="8">
         <v>0.53</v>
@@ -4982,21 +7140,21 @@
       </c>
       <c r="Q21" s="18">
         <f t="shared" si="2"/>
-        <v>0.22262259791286998</v>
+        <v>0.18201982989640889</v>
       </c>
       <c r="R21" s="7">
         <v>85</v>
       </c>
       <c r="S21" s="18">
         <f t="shared" si="3"/>
-        <v>0.21287515597101136</v>
+        <v>0.17483750425503938</v>
       </c>
       <c r="T21" s="7">
         <v>85</v>
       </c>
       <c r="U21" s="18">
         <f t="shared" si="4"/>
-        <v>0.20411897931137574</v>
+        <v>0.16838558461109737</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
@@ -5018,7 +7176,7 @@
       <c r="G22" s="8">
         <v>0.79</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5027,10 +7185,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J22" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K22" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L22" s="8">
         <v>0.53</v>
@@ -5049,21 +7207,21 @@
       </c>
       <c r="Q22" s="18">
         <f t="shared" si="2"/>
-        <v>0.23106620762146091</v>
+        <v>0.18724243004059987</v>
       </c>
       <c r="R22" s="7">
         <v>90</v>
       </c>
       <c r="S22" s="18">
         <f t="shared" si="3"/>
-        <v>0.22074538674184591</v>
+        <v>0.17963761465562042</v>
       </c>
       <c r="T22" s="7">
         <v>90</v>
       </c>
       <c r="U22" s="18">
         <f t="shared" si="4"/>
-        <v>0.21147414086693755</v>
+        <v>0.17280617032674062</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
@@ -5085,7 +7243,7 @@
       <c r="G23" s="8">
         <v>0.79</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5094,10 +7252,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J23" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K23" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L23" s="8">
         <v>0.53</v>
@@ -5116,21 +7274,21 @@
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="2"/>
-        <v>0.2397476556243881</v>
+        <v>0.19274543808688158</v>
       </c>
       <c r="R23" s="7">
         <v>95</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="3"/>
-        <v>0.22885345580701671</v>
+        <v>0.18471813295829212</v>
       </c>
       <c r="T23" s="7">
         <v>95</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="4"/>
-        <v>0.2190671407168357</v>
+        <v>0.17750716394447458</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
@@ -5152,7 +7310,7 @@
       <c r="G24" s="8">
         <v>0.79</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5161,10 +7319,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J24" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K24" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L24" s="8">
         <v>0.53</v>
@@ -5183,21 +7341,21 @@
       </c>
       <c r="Q24" s="18">
         <f t="shared" si="2"/>
-        <v>0.2486312661775012</v>
+        <v>0.19848679284994039</v>
       </c>
       <c r="R24" s="7">
         <v>100</v>
       </c>
       <c r="S24" s="18">
         <f t="shared" si="3"/>
-        <v>0.23716368742237343</v>
+        <v>0.19003699797774098</v>
       </c>
       <c r="T24" s="7">
         <v>100</v>
       </c>
       <c r="U24" s="18">
         <f t="shared" si="4"/>
-        <v>0.22686230311691974</v>
+        <v>0.18244650427898565</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -5219,7 +7377,7 @@
       <c r="G25" s="8">
         <v>0.79</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5228,10 +7386,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J25" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K25" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L25" s="8">
         <v>0.53</v>
@@ -5250,21 +7408,21 @@
       </c>
       <c r="Q25" s="18">
         <f t="shared" si="2"/>
-        <v>0.25768815891648789</v>
+        <v>0.20443244479880812</v>
       </c>
       <c r="R25" s="7">
         <v>105</v>
       </c>
       <c r="S25" s="18">
         <f t="shared" si="3"/>
-        <v>0.2456472012236037</v>
+        <v>0.19556016018299877</v>
       </c>
       <c r="T25" s="7">
         <v>105</v>
       </c>
       <c r="U25" s="18">
         <f t="shared" si="4"/>
-        <v>0.23483074770287732</v>
+        <v>0.18759014179930567</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -5286,7 +7444,7 @@
       <c r="G26" s="8">
         <v>0.79</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5295,10 +7453,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J26" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K26" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L26" s="8">
         <v>0.53</v>
@@ -5317,21 +7475,21 @@
       </c>
       <c r="Q26" s="18">
         <f t="shared" si="2"/>
-        <v>0.26689470445236541</v>
+        <v>0.21055453522632908</v>
       </c>
       <c r="R26" s="7">
         <v>110</v>
       </c>
       <c r="S26" s="18">
         <f t="shared" si="3"/>
-        <v>0.25428036782172486</v>
+        <v>0.20125976086690972</v>
       </c>
       <c r="T26" s="7">
         <v>110</v>
       </c>
       <c r="U26" s="18">
         <f t="shared" si="4"/>
-        <v>0.24294884508572578</v>
+        <v>0.19291021779827885</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -5353,7 +7511,7 @@
       <c r="G27" s="8">
         <v>0.79</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5362,10 +7520,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J27" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K27" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L27" s="8">
         <v>0.53</v>
@@ -5384,21 +7542,21 @@
       </c>
       <c r="Q27" s="18">
         <f t="shared" si="2"/>
-        <v>0.27623138285510451</v>
+        <v>0.21683005041789627</v>
       </c>
       <c r="R27" s="7">
         <v>115</v>
       </c>
       <c r="S27" s="18">
         <f t="shared" si="3"/>
-        <v>0.26304366728670758</v>
+        <v>0.20711278631486696</v>
       </c>
       <c r="T27" s="7">
         <v>115</v>
       </c>
       <c r="U27" s="18">
         <f t="shared" si="4"/>
-        <v>0.25119707533543584</v>
+        <v>0.19838371856129833</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -5420,7 +7578,7 @@
       <c r="G28" s="8">
         <v>0.79</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5429,10 +7587,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J28" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K28" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L28" s="8">
         <v>0.53</v>
@@ -5451,21 +7609,21 @@
       </c>
       <c r="Q28" s="18">
         <f t="shared" si="2"/>
-        <v>0.28568192751634758</v>
+        <v>0.22323981227800388</v>
       </c>
       <c r="R28" s="7">
         <v>120</v>
       </c>
       <c r="S28" s="18">
         <f t="shared" si="3"/>
-        <v>0.27192083301019421</v>
+        <v>0.21310005843136459</v>
       </c>
       <c r="T28" s="7">
         <v>120</v>
       </c>
       <c r="U28" s="18">
         <f t="shared" si="4"/>
-        <v>0.25955917184364979</v>
+        <v>0.20399146599285822</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -5487,7 +7645,7 @@
       <c r="G29" s="8">
         <v>0.79</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5496,10 +7654,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J29" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K29" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L29" s="8">
         <v>0.53</v>
@@ -5518,21 +7676,21 @@
       </c>
       <c r="Q29" s="18">
         <f t="shared" si="2"/>
-        <v>0.29523267448507401</v>
+        <v>0.22976771120642717</v>
       </c>
       <c r="R29" s="7">
         <v>125</v>
       </c>
       <c r="S29" s="18">
         <f t="shared" si="3"/>
-        <v>0.28089820104116425</v>
+        <v>0.2192054676161779</v>
       </c>
       <c r="T29" s="7">
         <v>125</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" si="4"/>
-        <v>0.26802147065934712</v>
+        <v>0.20971735049273374</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -5554,7 +7712,7 @@
       <c r="G30" s="8">
         <v>0.79</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5563,10 +7721,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J30" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K30" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L30" s="8">
         <v>0.53</v>
@@ -5585,21 +7743,21 @@
       </c>
       <c r="Q30" s="18">
         <f t="shared" si="2"/>
-        <v>0.30487206195657424</v>
+        <v>0.23640011600297578</v>
       </c>
       <c r="R30" s="7">
         <v>130</v>
       </c>
       <c r="S30" s="18">
         <f t="shared" si="3"/>
-        <v>0.28996420957490809</v>
+        <v>0.22541538266911654</v>
       </c>
       <c r="T30" s="7">
         <v>130</v>
       </c>
       <c r="U30" s="18">
         <f t="shared" si="4"/>
-        <v>0.27657240997781829</v>
+        <v>0.21554774086073464</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
@@ -5621,7 +7779,7 @@
       <c r="G31" s="8">
         <v>0.79</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5630,10 +7788,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J31" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K31" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L31" s="8">
         <v>0.53</v>
@@ -5652,21 +7810,21 @@
       </c>
       <c r="Q31" s="18">
         <f t="shared" si="2"/>
-        <v>0.31459024098609567</v>
+        <v>0.24312541490452469</v>
       </c>
       <c r="R31" s="7">
         <v>135</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" si="3"/>
-        <v>0.2991090096666732</v>
+        <v>0.23171819182705547</v>
       </c>
       <c r="T31" s="7">
         <v>135</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" si="4"/>
-        <v>0.28520214085431067</v>
+        <v>0.2214710253337358</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -5688,7 +7846,7 @@
       <c r="G32" s="8">
         <v>0.79</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5697,10 +7855,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J32" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K32" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L32" s="8">
         <v>0.53</v>
@@ -5719,21 +7877,21 @@
       </c>
       <c r="Q32" s="18">
         <f t="shared" si="2"/>
-        <v>0.3243787696209931</v>
+        <v>0.24993365497125244</v>
       </c>
       <c r="R32" s="7">
         <v>140</v>
       </c>
       <c r="S32" s="18">
         <f t="shared" si="3"/>
-        <v>0.30832415936381424</v>
+        <v>0.23810394215017328</v>
       </c>
       <c r="T32" s="7">
         <v>140</v>
       </c>
       <c r="U32" s="18">
         <f t="shared" si="4"/>
-        <v>0.29390222133617905</v>
+        <v>0.22747725097191582</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
@@ -5755,7 +7913,7 @@
       <c r="G33" s="8">
         <v>0.79</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="25">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5764,10 +7922,10 @@
         <v>250.50576870857486</v>
       </c>
       <c r="J33" s="21">
-        <v>1.38E-2</v>
+        <v>1.627E-2</v>
       </c>
       <c r="K33" s="8">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="L33" s="8">
         <v>0.53</v>
@@ -5786,21 +7944,21 @@
       </c>
       <c r="Q33" s="18">
         <f t="shared" si="2"/>
-        <v>0.33423037031588287</v>
+        <v>0.25681625608262332</v>
       </c>
       <c r="R33" s="7">
         <v>145</v>
       </c>
       <c r="S33" s="18">
         <f t="shared" si="3"/>
-        <v>0.31760238112094763</v>
+        <v>0.24456405351793417</v>
       </c>
       <c r="T33" s="7">
         <v>145</v>
       </c>
       <c r="U33" s="18">
         <f t="shared" si="4"/>
-        <v>0.30266537387803971</v>
+        <v>0.23355783765473895</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5822,7 +7980,7 @@
       <c r="G34" s="10">
         <v>0.79</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <f t="shared" si="0"/>
         <v>778.34315194077169</v>
       </c>
@@ -5830,11 +7988,11 @@
         <f t="shared" si="1"/>
         <v>250.50576870857486</v>
       </c>
-      <c r="J34" s="22">
-        <v>1.38E-2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>7</v>
+      <c r="J34" s="21">
+        <v>1.627E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>9.5</v>
       </c>
       <c r="L34" s="10">
         <v>0.53</v>
@@ -5853,2182 +8011,21 @@
       </c>
       <c r="Q34" s="18">
         <f t="shared" si="2"/>
-        <v>0.34413873586476568</v>
+        <v>0.26376578213417295</v>
       </c>
       <c r="R34" s="9">
         <v>150</v>
       </c>
       <c r="S34" s="18">
         <f t="shared" si="3"/>
-        <v>0.32693736773207405</v>
+        <v>0.25109108982587386</v>
       </c>
       <c r="T34" s="9">
         <v>150</v>
       </c>
       <c r="U34" s="18">
         <f t="shared" si="4"/>
-        <v>0.31148529127389346</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ACC4D3-6A73-4891-805F-ABFB63A24EA5}">
-  <dimension ref="B2:U34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="30"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C5" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E5" s="8">
-        <v>287</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H5" s="26">
-        <f>G5*SQRT(F5*E5*D5)*3.28084</f>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I5" s="8">
-        <f>0.5*C5*H5^2</f>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J5" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>7</v>
-      </c>
-      <c r="L5" s="28">
-        <v>0.53</v>
-      </c>
-      <c r="M5" s="28">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N5" s="28">
-        <v>0.59</v>
-      </c>
-      <c r="O5" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P5" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="18">
-        <f>((I5*J5)/(P5))+(((O5^2)*P5)/(K5*L5*PI()*I5))</f>
-        <v>0.62694726452788008</v>
-      </c>
-      <c r="R5" s="7">
-        <v>5</v>
-      </c>
-      <c r="S5" s="18">
-        <f>((I5*J5)/(R5))+(((O5^2)*R5)/(K5*M5*PI()*I5))</f>
-        <v>0.62637388559012364</v>
-      </c>
-      <c r="T5" s="7">
-        <v>5</v>
-      </c>
-      <c r="U5" s="18">
-        <f>((I5*J5)/(T5))+(((O5^2)*T5)/(K5*N5*PI()*I5))</f>
-        <v>0.62585881637485097</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C6" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E6" s="8">
-        <v>287</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H6" s="26">
-        <f t="shared" ref="H6:H34" si="0">G6*SQRT(F6*E6*D6)*3.28084</f>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" ref="I6:I34" si="1">0.5*C6*H6^2</f>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J6" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O6" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P6" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="18">
-        <f t="shared" ref="Q6:Q34" si="2">((I6*J6)/(P6))+(((O6^2)*P6)/(K6*L6*PI()*I6))</f>
-        <v>0.32952824252111884</v>
-      </c>
-      <c r="R6" s="7">
-        <v>10</v>
-      </c>
-      <c r="S6" s="18">
-        <f t="shared" ref="S6:S34" si="3">((I6*J6)/(R6))+(((O6^2)*R6)/(K6*M6*PI()*I6))</f>
-        <v>0.32838148464560607</v>
-      </c>
-      <c r="T6" s="7">
-        <v>10</v>
-      </c>
-      <c r="U6" s="18">
-        <f t="shared" ref="U6:U34" si="4">((I6*J6)/(T6))+(((O6^2)*T6)/(K6*N6*PI()*I6))</f>
-        <v>0.32735134621506068</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C7" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E7" s="8">
-        <v>287</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J7" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K7" s="8">
-        <v>7</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O7" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P7" s="7">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="18">
-        <f t="shared" si="2"/>
-        <v>0.23752395085538908</v>
-      </c>
-      <c r="R7" s="7">
-        <v>15</v>
-      </c>
-      <c r="S7" s="18">
-        <f t="shared" si="3"/>
-        <v>0.23580381404211989</v>
-      </c>
-      <c r="T7" s="7">
-        <v>15</v>
-      </c>
-      <c r="U7" s="18">
-        <f t="shared" si="4"/>
-        <v>0.23425860639630186</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C8" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E8" s="8">
-        <v>287</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J8" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K8" s="8">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O8" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P8" s="7">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="18">
-        <f t="shared" si="2"/>
-        <v>0.19687334177491711</v>
-      </c>
-      <c r="R8" s="7">
-        <v>20</v>
-      </c>
-      <c r="S8" s="18">
-        <f t="shared" si="3"/>
-        <v>0.19457982602389157</v>
-      </c>
-      <c r="T8" s="7">
-        <v>20</v>
-      </c>
-      <c r="U8" s="18">
-        <f t="shared" si="4"/>
-        <v>0.19251954916280081</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C9" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D9" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E9" s="8">
-        <v>287</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J9" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K9" s="8">
-        <v>7</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O9" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P9" s="7">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="18">
-        <f t="shared" si="2"/>
-        <v>0.17676420572854828</v>
-      </c>
-      <c r="R9" s="7">
-        <v>25</v>
-      </c>
-      <c r="S9" s="18">
-        <f t="shared" si="3"/>
-        <v>0.17389731103976636</v>
-      </c>
-      <c r="T9" s="7">
-        <v>25</v>
-      </c>
-      <c r="U9" s="18">
-        <f t="shared" si="4"/>
-        <v>0.17132196496340293</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C10" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D10" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E10" s="8">
-        <v>287</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H10" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J10" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K10" s="8">
-        <v>7</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O10" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P10" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="18">
-        <f t="shared" si="2"/>
-        <v>0.16692580619923106</v>
-      </c>
-      <c r="R10" s="7">
-        <v>30</v>
-      </c>
-      <c r="S10" s="18">
-        <f t="shared" si="3"/>
-        <v>0.16348553257269272</v>
-      </c>
-      <c r="T10" s="7">
-        <v>30</v>
-      </c>
-      <c r="U10" s="18">
-        <f t="shared" si="4"/>
-        <v>0.1603951172810566</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C11" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D11" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E11" s="8">
-        <v>287</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J11" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K11" s="8">
-        <v>7</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O11" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P11" s="7">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="18">
-        <f t="shared" si="2"/>
-        <v>0.16295639896537184</v>
-      </c>
-      <c r="R11" s="7">
-        <v>35</v>
-      </c>
-      <c r="S11" s="18">
-        <f t="shared" si="3"/>
-        <v>0.15894274640107714</v>
-      </c>
-      <c r="T11" s="7">
-        <v>35</v>
-      </c>
-      <c r="U11" s="18">
-        <f t="shared" si="4"/>
-        <v>0.15533726189416833</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C12" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D12" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E12" s="8">
-        <v>287</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J12" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K12" s="8">
-        <v>7</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O12" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P12" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="18">
-        <f t="shared" si="2"/>
-        <v>0.16265511191617391</v>
-      </c>
-      <c r="R12" s="7">
-        <v>40</v>
-      </c>
-      <c r="S12" s="18">
-        <f t="shared" si="3"/>
-        <v>0.15806808041412279</v>
-      </c>
-      <c r="T12" s="7">
-        <v>40</v>
-      </c>
-      <c r="U12" s="18">
-        <f t="shared" si="4"/>
-        <v>0.15394752669194134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C13" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D13" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E13" s="8">
-        <v>287</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H13" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J13" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K13" s="8">
-        <v>7</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O13" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P13" s="7">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="18">
-        <f t="shared" si="2"/>
-        <v>0.16479923832341684</v>
-      </c>
-      <c r="R13" s="7">
-        <v>45</v>
-      </c>
-      <c r="S13" s="18">
-        <f t="shared" si="3"/>
-        <v>0.15963882788360934</v>
-      </c>
-      <c r="T13" s="7">
-        <v>45</v>
-      </c>
-      <c r="U13" s="18">
-        <f t="shared" si="4"/>
-        <v>0.15500320494615516</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C14" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E14" s="8">
-        <v>287</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H14" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J14" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K14" s="8">
-        <v>7</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O14" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P14" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="18">
-        <f t="shared" si="2"/>
-        <v>0.16865515415016835</v>
-      </c>
-      <c r="R14" s="7">
-        <v>50</v>
-      </c>
-      <c r="S14" s="18">
-        <f t="shared" si="3"/>
-        <v>0.16292136477260447</v>
-      </c>
-      <c r="T14" s="7">
-        <v>50</v>
-      </c>
-      <c r="U14" s="18">
-        <f t="shared" si="4"/>
-        <v>0.15777067261987762</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C15" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D15" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E15" s="8">
-        <v>287</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H15" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J15" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K15" s="8">
-        <v>7</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O15" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P15" s="7">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="18">
-        <f t="shared" si="2"/>
-        <v>0.17375600773656247</v>
-      </c>
-      <c r="R15" s="7">
-        <v>55</v>
-      </c>
-      <c r="S15" s="18">
-        <f t="shared" si="3"/>
-        <v>0.1674488394212422</v>
-      </c>
-      <c r="T15" s="7">
-        <v>55</v>
-      </c>
-      <c r="U15" s="18">
-        <f t="shared" si="4"/>
-        <v>0.16178307805324266</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C16" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D16" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E16" s="8">
-        <v>287</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H16" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J16" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K16" s="8">
-        <v>7</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O16" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P16" s="7">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="18">
-        <f t="shared" si="2"/>
-        <v>0.17979056464268858</v>
-      </c>
-      <c r="R16" s="7">
-        <v>60</v>
-      </c>
-      <c r="S16" s="18">
-        <f t="shared" si="3"/>
-        <v>0.1729100173896119</v>
-      </c>
-      <c r="T16" s="7">
-        <v>60</v>
-      </c>
-      <c r="U16" s="18">
-        <f t="shared" si="4"/>
-        <v>0.16672918680633969</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C17" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D17" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E17" s="8">
-        <v>287</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H17" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J17" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K17" s="8">
-        <v>7</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O17" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P17" s="7">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="18">
-        <f t="shared" si="2"/>
-        <v>0.18654335487168539</v>
-      </c>
-      <c r="R17" s="7">
-        <v>65</v>
-      </c>
-      <c r="S17" s="18">
-        <f t="shared" si="3"/>
-        <v>0.17908942868085231</v>
-      </c>
-      <c r="T17" s="7">
-        <v>65</v>
-      </c>
-      <c r="U17" s="18">
-        <f t="shared" si="4"/>
-        <v>0.17239352888230741</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C18" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D18" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E18" s="8">
-        <v>287</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H18" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K18" s="8">
-        <v>7</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O18" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P18" s="7">
-        <v>70</v>
-      </c>
-      <c r="Q18" s="18">
-        <f t="shared" si="2"/>
-        <v>0.19386047128293779</v>
-      </c>
-      <c r="R18" s="7">
-        <v>70</v>
-      </c>
-      <c r="S18" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18583316615434836</v>
-      </c>
-      <c r="T18" s="7">
-        <v>70</v>
-      </c>
-      <c r="U18" s="18">
-        <f t="shared" si="4"/>
-        <v>0.17862219714053076</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C19" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D19" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E19" s="8">
-        <v>287</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H19" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J19" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K19" s="8">
-        <v>7</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O19" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P19" s="7">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="18">
-        <f t="shared" si="2"/>
-        <v>0.20162904863999467</v>
-      </c>
-      <c r="R19" s="7">
-        <v>75</v>
-      </c>
-      <c r="S19" s="18">
-        <f t="shared" si="3"/>
-        <v>0.19302836457364886</v>
-      </c>
-      <c r="T19" s="7">
-        <v>75</v>
-      </c>
-      <c r="U19" s="18">
-        <f t="shared" si="4"/>
-        <v>0.18530232634455857</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C20" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D20" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E20" s="8">
-        <v>287</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H20" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J20" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K20" s="8">
-        <v>7</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O20" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P20" s="7">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="18">
-        <f t="shared" si="2"/>
-        <v>0.20976443801551767</v>
-      </c>
-      <c r="R20" s="7">
-        <v>80</v>
-      </c>
-      <c r="S20" s="18">
-        <f t="shared" si="3"/>
-        <v>0.20059037501141547</v>
-      </c>
-      <c r="T20" s="7">
-        <v>80</v>
-      </c>
-      <c r="U20" s="18">
-        <f t="shared" si="4"/>
-        <v>0.19234926756705251</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C21" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D21" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E21" s="8">
-        <v>287</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H21" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J21" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K21" s="8">
-        <v>7</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O21" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P21" s="7">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="18">
-        <f t="shared" si="2"/>
-        <v>0.21820190787683633</v>
-      </c>
-      <c r="R21" s="7">
-        <v>85</v>
-      </c>
-      <c r="S21" s="18">
-        <f t="shared" si="3"/>
-        <v>0.20845446593497771</v>
-      </c>
-      <c r="T21" s="7">
-        <v>85</v>
-      </c>
-      <c r="U21" s="18">
-        <f t="shared" si="4"/>
-        <v>0.19969828927534206</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C22" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D22" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E22" s="8">
-        <v>287</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H22" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J22" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K22" s="8">
-        <v>7</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O22" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P22" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="18">
-        <f t="shared" si="2"/>
-        <v>0.22689111147631796</v>
-      </c>
-      <c r="R22" s="7">
-        <v>90</v>
-      </c>
-      <c r="S22" s="18">
-        <f t="shared" si="3"/>
-        <v>0.21657029059670296</v>
-      </c>
-      <c r="T22" s="7">
-        <v>90</v>
-      </c>
-      <c r="U22" s="18">
-        <f t="shared" si="4"/>
-        <v>0.20729904472179467</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C23" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D23" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E23" s="8">
-        <v>287</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H23" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J23" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K23" s="8">
-        <v>7</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O23" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P23" s="7">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="18">
-        <f t="shared" si="2"/>
-        <v>0.23579230138162113</v>
-      </c>
-      <c r="R23" s="7">
-        <v>95</v>
-      </c>
-      <c r="S23" s="18">
-        <f t="shared" si="3"/>
-        <v>0.22489810156424975</v>
-      </c>
-      <c r="T23" s="7">
-        <v>95</v>
-      </c>
-      <c r="U23" s="18">
-        <f t="shared" si="4"/>
-        <v>0.21511178647406873</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C24" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D24" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E24" s="8">
-        <v>287</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H24" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J24" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K24" s="8">
-        <v>7</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O24" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P24" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="18">
-        <f t="shared" si="2"/>
-        <v>0.24487367964687257</v>
-      </c>
-      <c r="R24" s="7">
-        <v>100</v>
-      </c>
-      <c r="S24" s="18">
-        <f t="shared" si="3"/>
-        <v>0.23340610089174479</v>
-      </c>
-      <c r="T24" s="7">
-        <v>100</v>
-      </c>
-      <c r="U24" s="18">
-        <f t="shared" si="4"/>
-        <v>0.22310471658629111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C25" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D25" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E25" s="8">
-        <v>287</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H25" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J25" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K25" s="8">
-        <v>7</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O25" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P25" s="7">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="18">
-        <f t="shared" si="2"/>
-        <v>0.25410950507779395</v>
-      </c>
-      <c r="R25" s="7">
-        <v>105</v>
-      </c>
-      <c r="S25" s="18">
-        <f t="shared" si="3"/>
-        <v>0.24206854738490979</v>
-      </c>
-      <c r="T25" s="7">
-        <v>105</v>
-      </c>
-      <c r="U25" s="18">
-        <f t="shared" si="4"/>
-        <v>0.23125209386418338</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C26" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D26" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E26" s="8">
-        <v>287</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H26" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J26" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K26" s="8">
-        <v>7</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O26" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P26" s="7">
-        <v>110</v>
-      </c>
-      <c r="Q26" s="18">
-        <f t="shared" si="2"/>
-        <v>0.26347871669724848</v>
-      </c>
-      <c r="R26" s="7">
-        <v>110</v>
-      </c>
-      <c r="S26" s="18">
-        <f t="shared" si="3"/>
-        <v>0.25086438006660794</v>
-      </c>
-      <c r="T26" s="7">
-        <v>110</v>
-      </c>
-      <c r="U26" s="18">
-        <f t="shared" si="4"/>
-        <v>0.23953285733060886</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C27" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D27" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E27" s="8">
-        <v>287</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H27" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J27" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K27" s="8">
-        <v>7</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O27" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P27" s="7">
-        <v>115</v>
-      </c>
-      <c r="Q27" s="18">
-        <f t="shared" si="2"/>
-        <v>0.27296391630673184</v>
-      </c>
-      <c r="R27" s="7">
-        <v>115</v>
-      </c>
-      <c r="S27" s="18">
-        <f t="shared" si="3"/>
-        <v>0.25977620073833491</v>
-      </c>
-      <c r="T27" s="7">
-        <v>115</v>
-      </c>
-      <c r="U27" s="18">
-        <f t="shared" si="4"/>
-        <v>0.2479296087870631</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C28" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D28" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E28" s="8">
-        <v>287</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H28" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K28" s="8">
-        <v>7</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O28" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P28" s="7">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="18">
-        <f t="shared" si="2"/>
-        <v>0.28255060540749039</v>
-      </c>
-      <c r="R28" s="7">
-        <v>120</v>
-      </c>
-      <c r="S28" s="18">
-        <f t="shared" si="3"/>
-        <v>0.26878951090133701</v>
-      </c>
-      <c r="T28" s="7">
-        <v>120</v>
-      </c>
-      <c r="U28" s="18">
-        <f t="shared" si="4"/>
-        <v>0.2564278497347926</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C29" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D29" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E29" s="8">
-        <v>287</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H29" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J29" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K29" s="8">
-        <v>7</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O29" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P29" s="7">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="18">
-        <f t="shared" si="2"/>
-        <v>0.29222660526057109</v>
-      </c>
-      <c r="R29" s="7">
-        <v>125</v>
-      </c>
-      <c r="S29" s="18">
-        <f t="shared" si="3"/>
-        <v>0.27789213181666134</v>
-      </c>
-      <c r="T29" s="7">
-        <v>125</v>
-      </c>
-      <c r="U29" s="18">
-        <f t="shared" si="4"/>
-        <v>0.26501540143484426</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C30" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D30" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E30" s="8">
-        <v>287</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H30" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J30" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K30" s="8">
-        <v>7</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M30" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O30" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P30" s="7">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="18">
-        <f t="shared" si="2"/>
-        <v>0.30198161077916763</v>
-      </c>
-      <c r="R30" s="7">
-        <v>130</v>
-      </c>
-      <c r="S30" s="18">
-        <f t="shared" si="3"/>
-        <v>0.28707375839750149</v>
-      </c>
-      <c r="T30" s="7">
-        <v>130</v>
-      </c>
-      <c r="U30" s="18">
-        <f t="shared" si="4"/>
-        <v>0.27368195880041168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C31" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D31" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E31" s="8">
-        <v>287</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H31" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J31" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K31" s="8">
-        <v>7</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O31" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P31" s="7">
-        <v>135</v>
-      </c>
-      <c r="Q31" s="18">
-        <f t="shared" si="2"/>
-        <v>0.31180684355600041</v>
-      </c>
-      <c r="R31" s="7">
-        <v>135</v>
-      </c>
-      <c r="S31" s="18">
-        <f t="shared" si="3"/>
-        <v>0.29632561223657794</v>
-      </c>
-      <c r="T31" s="7">
-        <v>135</v>
-      </c>
-      <c r="U31" s="18">
-        <f t="shared" si="4"/>
-        <v>0.28241874342421536</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C32" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D32" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E32" s="8">
-        <v>287</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H32" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J32" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K32" s="8">
-        <v>7</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O32" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P32" s="7">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="18">
-        <f t="shared" si="2"/>
-        <v>0.32169477924197265</v>
-      </c>
-      <c r="R32" s="7">
-        <v>140</v>
-      </c>
-      <c r="S32" s="18">
-        <f t="shared" si="3"/>
-        <v>0.30564016898479379</v>
-      </c>
-      <c r="T32" s="7">
-        <v>140</v>
-      </c>
-      <c r="U32" s="18">
-        <f t="shared" si="4"/>
-        <v>0.2912182309571586</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
-        <v>32000</v>
-      </c>
-      <c r="C33" s="14">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D33" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E33" s="8">
-        <v>287</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="H33" s="26">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J33" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K33" s="8">
-        <v>7</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O33" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P33" s="7">
-        <v>145</v>
-      </c>
-      <c r="Q33" s="18">
-        <f t="shared" si="2"/>
-        <v>0.33163893132924244</v>
-      </c>
-      <c r="R33" s="7">
-        <v>145</v>
-      </c>
-      <c r="S33" s="18">
-        <f t="shared" si="3"/>
-        <v>0.31501094213430719</v>
-      </c>
-      <c r="T33" s="7">
-        <v>145</v>
-      </c>
-      <c r="U33" s="18">
-        <f t="shared" si="4"/>
-        <v>0.30007393489139927</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9">
-        <v>32000</v>
-      </c>
-      <c r="C34" s="15">
-        <v>8.2700000000000004E-4</v>
-      </c>
-      <c r="D34" s="8">
-        <v>224.44399999999999</v>
-      </c>
-      <c r="E34" s="10">
-        <v>287</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="H34" s="27">
-        <f t="shared" si="0"/>
-        <v>778.34315194077169</v>
-      </c>
-      <c r="I34" s="10">
-        <f t="shared" si="1"/>
-        <v>250.50576870857486</v>
-      </c>
-      <c r="J34" s="21">
-        <v>1.23E-2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>7</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="O34" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="P34" s="9">
-        <v>150</v>
-      </c>
-      <c r="Q34" s="18">
-        <f t="shared" si="2"/>
-        <v>0.34163367817767992</v>
-      </c>
-      <c r="R34" s="9">
-        <v>150</v>
-      </c>
-      <c r="S34" s="18">
-        <f t="shared" si="3"/>
-        <v>0.32443231004498829</v>
-      </c>
-      <c r="T34" s="9">
-        <v>150</v>
-      </c>
-      <c r="U34" s="18">
-        <f t="shared" si="4"/>
-        <v>0.30898023358680771</v>
+        <v>0.23970534927774084</v>
       </c>
     </row>
   </sheetData>
